--- a/private/sijiache/fixcarinfo.xlsx
+++ b/private/sijiache/fixcarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,59 +396,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>宝马</v>
+        <v>进口路虎极光耀动版5门</v>
       </c>
       <c r="B2" t="str">
-        <v>123</v>
+        <v>不到21000</v>
       </c>
       <c r="C2" t="str">
-        <v>13344556677</v>
+        <v>18770033336</v>
       </c>
       <c r="D2" t="str">
-        <v>豫A58375</v>
+        <v>浙C209CU</v>
       </c>
       <c r="E2" t="str">
-        <v>飒飒大苏打请问企鹅豆腐干豆腐干如图注册阿斯顿发了空手道解放去哦脾胃弱皮脂腺的浪费空间这里看过骄傲欸侮辱放；啊看见对方啊；了似的咖啡碱</v>
+        <v>20000公里中保问题</v>
       </c>
       <c r="F2" t="str">
-        <v>2015-11-28 16:20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>阿斯顿</v>
-      </c>
-      <c r="B3" t="str">
-        <v>13万</v>
-      </c>
-      <c r="C3" t="str">
-        <v>13322334422</v>
-      </c>
-      <c r="D3" t="str">
-        <v>豫Q908009</v>
-      </c>
-      <c r="E3" t="str">
-        <v>阿斯顿请问自行车</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2015-11-28 16:16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>奥迪双钻</v>
-      </c>
-      <c r="B4" t="str">
-        <v>12.5公里</v>
-      </c>
-      <c r="D4" t="str">
-        <v>豫A12345</v>
-      </c>
-      <c r="E4" t="str">
-        <v>阿斯顿啊实打实的</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2015-11-28 16:9</v>
+        <v>2015-12-08 23:28</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/fixcarinfo.xlsx
+++ b/private/sijiache/fixcarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,22 +396,279 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>进口路虎极光耀动版5门</v>
+        <v>全新福克斯</v>
       </c>
       <c r="B2" t="str">
-        <v>不到21000</v>
+        <v>20000</v>
       </c>
       <c r="C2" t="str">
-        <v>18770033336</v>
+        <v>18336366351</v>
       </c>
       <c r="D2" t="str">
-        <v>浙C209CU</v>
+        <v>豫AJ07Y7</v>
       </c>
       <c r="E2" t="str">
-        <v>20000公里中保问题</v>
+        <v>发动机护板</v>
       </c>
       <c r="F2" t="str">
-        <v>2015-12-08 23:28</v>
+        <v>2016-05-05 13:13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>新款朗逸1.4T</v>
+      </c>
+      <c r="B3" t="str">
+        <v>30800</v>
+      </c>
+      <c r="C3" t="str">
+        <v>18638923681</v>
+      </c>
+      <c r="D3" t="str">
+        <v>豫AS85F5</v>
+      </c>
+      <c r="E3" t="str">
+        <v>私家车999我想问下，补过的轮胎多长时间或者多长公里需要更换</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2016-05-05 11:58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>09年1.6l赛拉图手动</v>
+      </c>
+      <c r="B4" t="str">
+        <v>99000</v>
+      </c>
+      <c r="C4" t="str">
+        <v>18653021319</v>
+      </c>
+      <c r="D4" t="str">
+        <v>鲁rgs368</v>
+      </c>
+      <c r="E4" t="str">
+        <v>尾气检测，一氧化碳超标，应该怎么弄</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2016-05-05 11:55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>07年思域</v>
+      </c>
+      <c r="B5" t="str">
+        <v>10万</v>
+      </c>
+      <c r="C5" t="str">
+        <v>18937373738</v>
+      </c>
+      <c r="D5" t="str">
+        <v>豫GH1313</v>
+      </c>
+      <c r="E5" t="str">
+        <v>氧传感器坏了，大概多少钱</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2016-05-05 11:55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>科鲁兹1.8</v>
+      </c>
+      <c r="B6" t="str">
+        <v>84400</v>
+      </c>
+      <c r="C6" t="str">
+        <v>18637170202</v>
+      </c>
+      <c r="D6" t="str">
+        <v>豫AA923Y</v>
+      </c>
+      <c r="E6" t="str">
+        <v>凉车启动发动机附近会哒哒哒哒响，走一段就不响了</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2016-05-05 11:50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>海马福仕达面包车</v>
+      </c>
+      <c r="B7" t="str">
+        <v>12662</v>
+      </c>
+      <c r="C7" t="str">
+        <v>13503459765</v>
+      </c>
+      <c r="D7" t="str">
+        <v>冀EJH087</v>
+      </c>
+      <c r="E7" t="str">
+        <v>空调不凉，变速箱漏油，请问西郊有没有维修点？</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2016-05-05 11:50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>雪铁龙C4L2013款</v>
+      </c>
+      <c r="B8" t="str">
+        <v>45000</v>
+      </c>
+      <c r="C8" t="str">
+        <v>18537180789</v>
+      </c>
+      <c r="D8" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E8" t="str">
+        <v>空调打开以后，一直吹风10分钟后，才出冷风</v>
+      </c>
+      <c r="F8" t="str">
+        <v>2016-05-05 11:46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>传奇GS5</v>
+      </c>
+      <c r="B9" t="str">
+        <v>37000</v>
+      </c>
+      <c r="C9" t="str">
+        <v>13838527657</v>
+      </c>
+      <c r="D9" t="str">
+        <v>豫AX8L55</v>
+      </c>
+      <c r="E9" t="str">
+        <v>左前轮刹车片报警。是否要更换刹车片。做四轮定位。需要多少钱</v>
+      </c>
+      <c r="F9" t="str">
+        <v>2016-05-05 11:31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>306中配带空调</v>
+      </c>
+      <c r="B10" t="str">
+        <v>23536</v>
+      </c>
+      <c r="C10" t="str">
+        <v>15069090825</v>
+      </c>
+      <c r="D10" t="str">
+        <v>豫AV858F</v>
+      </c>
+      <c r="E10" t="str">
+        <v>询价</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2016-05-05 11:22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>帕萨特</v>
+      </c>
+      <c r="B11" t="str">
+        <v>三万</v>
+      </c>
+      <c r="C11" t="str">
+        <v>13223718083</v>
+      </c>
+      <c r="D11" t="str">
+        <v>豫A9RH49</v>
+      </c>
+      <c r="E11" t="str">
+        <v>空调制冷效果不好，开启时噪音大</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2016-05-05 10:03</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>科鲁兹手动</v>
+      </c>
+      <c r="B12" t="str">
+        <v>10万</v>
+      </c>
+      <c r="C12" t="str">
+        <v>15803826659</v>
+      </c>
+      <c r="D12" t="str">
+        <v>豫AQ950K</v>
+      </c>
+      <c r="E12" t="str">
+        <v>档位好挂 不好摘   变速箱油在8万公里时换过     这种情况刚出现三天</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2016-05-05 09:37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>雪铁龙C4 L2013款</v>
+      </c>
+      <c r="B13" t="str">
+        <v>45000</v>
+      </c>
+      <c r="C13" t="str">
+        <v>18537180789</v>
+      </c>
+      <c r="D13" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E13" t="str">
+        <v>开启空调后，持续吹风大概10分钟以后才吹凉风。</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2016-05-05 08:57</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>上海大众1.4T朗逸</v>
+      </c>
+      <c r="B14" t="str">
+        <v>22300</v>
+      </c>
+      <c r="C14" t="str">
+        <v>13523485088</v>
+      </c>
+      <c r="D14" t="str">
+        <v>豫A S6R17</v>
+      </c>
+      <c r="E14" t="str">
+        <v>前保险杠被撞了个小洞，修修多少钱！</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2016-05-04 17:52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>上海大众1.4T朗逸</v>
+      </c>
+      <c r="B15" t="str">
+        <v>22300</v>
+      </c>
+      <c r="C15" t="str">
+        <v>13523485088</v>
+      </c>
+      <c r="D15" t="str">
+        <v>豫AS6R17</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2016-05-04 17:49</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/fixcarinfo.xlsx
+++ b/private/sijiache/fixcarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F142"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,279 +396,2789 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>全新福克斯</v>
+        <v>吉利博瑞</v>
       </c>
       <c r="B2" t="str">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="C2" t="str">
-        <v>18336366351</v>
+        <v>13837153545</v>
       </c>
       <c r="D2" t="str">
-        <v>豫AJ07Y7</v>
+        <v>豫A00RT2</v>
       </c>
       <c r="E2" t="str">
-        <v>发动机护板</v>
+        <v>保险杠上的塑料覆盖件破洞</v>
       </c>
       <c r="F2" t="str">
-        <v>2016-05-05 13:13</v>
+        <v>2017-03-14 14:39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>新款朗逸1.4T</v>
+        <v>JEEP大切诺基</v>
       </c>
       <c r="B3" t="str">
-        <v>30800</v>
+        <v>162000</v>
       </c>
       <c r="C3" t="str">
-        <v>18638923681</v>
+        <v>18937654889</v>
       </c>
       <c r="D3" t="str">
-        <v>豫AS85F5</v>
+        <v>豫JQ3009</v>
       </c>
       <c r="E3" t="str">
-        <v>私家车999我想问下，补过的轮胎多长时间或者多长公里需要更换</v>
+        <v>转弯有格啦格啦响，高速在80时噪音很大。</v>
       </c>
       <c r="F3" t="str">
-        <v>2016-05-05 11:58</v>
+        <v>2017-03-14 11:22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>09年1.6l赛拉图手动</v>
+        <v>2013款途胜</v>
       </c>
       <c r="B4" t="str">
-        <v>99000</v>
+        <v>35000</v>
       </c>
       <c r="C4" t="str">
-        <v>18653021319</v>
+        <v>15638809921</v>
       </c>
       <c r="D4" t="str">
-        <v>鲁rgs368</v>
+        <v>豫AF5V10</v>
       </c>
       <c r="E4" t="str">
-        <v>尾气检测，一氧化碳超标，应该怎么弄</v>
+        <v>发动机异响</v>
       </c>
       <c r="F4" t="str">
-        <v>2016-05-05 11:55</v>
+        <v>2017-03-13 19:39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>07年思域</v>
+        <v>本田奥德赛</v>
       </c>
       <c r="B5" t="str">
-        <v>10万</v>
+        <v>100000</v>
       </c>
       <c r="C5" t="str">
-        <v>18937373738</v>
+        <v>13027611903</v>
       </c>
       <c r="D5" t="str">
-        <v>豫GH1313</v>
+        <v>豫A95VZ1</v>
       </c>
       <c r="E5" t="str">
-        <v>氧传感器坏了，大概多少钱</v>
+        <v>车辆一千五百转匀速行驶会出现顿挫的感觉，一咣一咣的，2000转的开就没有这种感觉了，才换了火花塞，</v>
       </c>
       <c r="F5" t="str">
-        <v>2016-05-05 11:55</v>
+        <v>2017-03-13 13:56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>科鲁兹1.8</v>
+        <v>江淮瑞风</v>
       </c>
       <c r="B6" t="str">
-        <v>84400</v>
+        <v>94000</v>
       </c>
       <c r="C6" t="str">
-        <v>18637170202</v>
+        <v>15837137602</v>
       </c>
       <c r="D6" t="str">
-        <v>豫AA923Y</v>
+        <v>豫AG77W9</v>
       </c>
       <c r="E6" t="str">
-        <v>凉车启动发动机附近会哒哒哒哒响，走一段就不响了</v>
+        <v>油箱有油，油表灯报警，但是跑一会以后油表指针自己慢慢往上升，怎么回事？是传感器的问题还是什么</v>
       </c>
       <c r="F6" t="str">
-        <v>2016-05-05 11:50</v>
+        <v>2017-03-13 11:29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>海马福仕达面包车</v>
+        <v>科鲁兹</v>
       </c>
       <c r="B7" t="str">
-        <v>12662</v>
+        <v>47000</v>
       </c>
       <c r="C7" t="str">
-        <v>13503459765</v>
+        <v>15136163539</v>
       </c>
       <c r="D7" t="str">
-        <v>冀EJH087</v>
-      </c>
-      <c r="E7" t="str">
-        <v>空调不凉，变速箱漏油，请问西郊有没有维修点？</v>
+        <v>豫A4YX56</v>
       </c>
       <c r="F7" t="str">
-        <v>2016-05-05 11:50</v>
+        <v>2017-03-13 09:07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>雪铁龙C4L2013款</v>
+        <v>荣威360</v>
       </c>
       <c r="B8" t="str">
-        <v>45000</v>
+        <v>3万公里</v>
       </c>
       <c r="C8" t="str">
-        <v>18537180789</v>
+        <v>13140070781</v>
       </c>
       <c r="D8" t="str">
-        <v>豫</v>
+        <v>豫A8M85K</v>
       </c>
       <c r="E8" t="str">
-        <v>空调打开以后，一直吹风10分钟后，才出冷风</v>
+        <v>原装的扬声器音质不好，音量太小，想更换质量好点的</v>
       </c>
       <c r="F8" t="str">
-        <v>2016-05-05 11:46</v>
+        <v>2017-03-12 17:51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>传奇GS5</v>
+        <v>荣威360</v>
       </c>
       <c r="B9" t="str">
-        <v>37000</v>
+        <v>3万公里</v>
       </c>
       <c r="C9" t="str">
-        <v>13838527657</v>
+        <v>13140070781</v>
       </c>
       <c r="D9" t="str">
-        <v>豫AX8L55</v>
+        <v>豫A8M85K</v>
       </c>
       <c r="E9" t="str">
-        <v>左前轮刹车片报警。是否要更换刹车片。做四轮定位。需要多少钱</v>
+        <v>原装的扬声器音质不好，音量小，想重新更换</v>
       </c>
       <c r="F9" t="str">
-        <v>2016-05-05 11:31</v>
+        <v>2017-03-12 17:45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>306中配带空调</v>
+        <v>大众凌渡</v>
       </c>
       <c r="B10" t="str">
-        <v>23536</v>
+        <v>4680</v>
       </c>
       <c r="C10" t="str">
-        <v>15069090825</v>
+        <v>17737790118</v>
       </c>
       <c r="D10" t="str">
-        <v>豫AV858F</v>
+        <v>豫A2AY16</v>
       </c>
       <c r="E10" t="str">
-        <v>询价</v>
+        <v>四轮定位</v>
       </c>
       <c r="F10" t="str">
-        <v>2016-05-05 11:22</v>
+        <v>2017-03-12 09:54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>帕萨特</v>
+        <v>大众凌渡</v>
       </c>
       <c r="B11" t="str">
-        <v>三万</v>
+        <v>4680</v>
       </c>
       <c r="C11" t="str">
-        <v>13223718083</v>
+        <v>17737790118</v>
       </c>
       <c r="D11" t="str">
-        <v>豫A9RH49</v>
+        <v>豫A2AY16</v>
       </c>
       <c r="E11" t="str">
-        <v>空调制冷效果不好，开启时噪音大</v>
+        <v>左前轮外倾角过大</v>
       </c>
       <c r="F11" t="str">
-        <v>2016-05-05 10:03</v>
+        <v>2017-03-12 09:00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>科鲁兹手动</v>
+        <v>大切诺基</v>
       </c>
       <c r="B12" t="str">
-        <v>10万</v>
+        <v>162000</v>
       </c>
       <c r="C12" t="str">
-        <v>15803826659</v>
+        <v>18937654889</v>
       </c>
       <c r="D12" t="str">
-        <v>豫AQ950K</v>
+        <v>豫AW3G08</v>
       </c>
       <c r="E12" t="str">
-        <v>档位好挂 不好摘   变速箱油在8万公里时换过     这种情况刚出现三天</v>
+        <v>转弯时前半轴咯啦格啦响，车速到80的时候噪音很大</v>
       </c>
       <c r="F12" t="str">
-        <v>2016-05-05 09:37</v>
+        <v>2017-03-11 14:57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>雪铁龙C4 L2013款</v>
+        <v>昌河铃木派喜</v>
       </c>
       <c r="B13" t="str">
-        <v>45000</v>
+        <v>3万</v>
       </c>
       <c r="C13" t="str">
-        <v>18537180789</v>
+        <v>15238625630</v>
       </c>
       <c r="D13" t="str">
-        <v>豫</v>
+        <v>豫A1KA57</v>
       </c>
       <c r="E13" t="str">
-        <v>开启空调后，持续吹风大概10分钟以后才吹凉风。</v>
+        <v>能联系我一下吗，文字说不清</v>
       </c>
       <c r="F13" t="str">
-        <v>2016-05-05 08:57</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2017-03-11 14:50</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>上海大众1.4T朗逸</v>
+        <v>金杯海狮</v>
       </c>
       <c r="B14" t="str">
-        <v>22300</v>
+        <v>170000</v>
       </c>
       <c r="C14" t="str">
-        <v>13523485088</v>
+        <v>18337103923</v>
       </c>
       <c r="D14" t="str">
-        <v>豫A S6R17</v>
-      </c>
-      <c r="E14" t="str">
-        <v>前保险杠被撞了个小洞，修修多少钱！</v>
+        <v>赣CV8765</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">发动机缺缸，维修好几次没办法解决
+顺便问一下跟换发动机费用</v>
       </c>
       <c r="F14" t="str">
-        <v>2016-05-04 17:52</v>
+        <v>2017-03-11 14:17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>上海大众1.4T朗逸</v>
+        <v>宝骏510</v>
       </c>
       <c r="B15" t="str">
-        <v>22300</v>
+        <v>660</v>
       </c>
       <c r="C15" t="str">
-        <v>13523485088</v>
+        <v>15136182375</v>
       </c>
       <c r="D15" t="str">
-        <v>豫AS6R17</v>
+        <v>豫A5PR15</v>
+      </c>
+      <c r="E15" t="str">
+        <v>补漆</v>
       </c>
       <c r="F15" t="str">
-        <v>2016-05-04 17:49</v>
+        <v>2017-03-11 13:08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>大途观</v>
+      </c>
+      <c r="C16" t="str">
+        <v>13526552177</v>
+      </c>
+      <c r="D16" t="str">
+        <v>豫AU97S8</v>
+      </c>
+      <c r="E16" t="str">
+        <v>发动机漏油</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2017-03-11 08:47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>昌河铃木派喜</v>
+      </c>
+      <c r="B17" t="str">
+        <v>两万多公里</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15238625630</v>
+      </c>
+      <c r="D17" t="str">
+        <v>豫A.1KA57</v>
+      </c>
+      <c r="E17" t="str">
+        <v>车头严重变形</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2017-03-10 11:19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>帕萨特</v>
+      </c>
+      <c r="B18" t="str">
+        <v>54785</v>
+      </c>
+      <c r="C18" t="str">
+        <v>15939266428</v>
+      </c>
+      <c r="D18" t="str">
+        <v>豫AC686C</v>
+      </c>
+      <c r="E18" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2017-03-09 13:15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>哈弗h6  SUV</v>
+      </c>
+      <c r="B19" t="str">
+        <v>13400</v>
+      </c>
+      <c r="C19" t="str">
+        <v>17797759375</v>
+      </c>
+      <c r="D19" t="str">
+        <v>豫GJ8615</v>
+      </c>
+      <c r="E19" t="str">
+        <v>前保险杠撞了一个坑，玻璃水罐撞漏了，大灯和雾灯不知道有事没</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2017-03-09 12:03</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>哈弗h6</v>
+      </c>
+      <c r="B20" t="str">
+        <v>13400</v>
+      </c>
+      <c r="C20" t="str">
+        <v>17797759375</v>
+      </c>
+      <c r="D20" t="str">
+        <v>豫GJ8615</v>
+      </c>
+      <c r="E20" t="str">
+        <v>右前轮撞在水泥墩路障上，撞了一个坑，前保险杠得换，玻璃水罐都漏了</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2017-03-09 12:00</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>传祺GS5</v>
+      </c>
+      <c r="B21" t="str">
+        <v>65000</v>
+      </c>
+      <c r="C21" t="str">
+        <v>13007539509</v>
+      </c>
+      <c r="D21" t="str">
+        <v>豫AW059L</v>
+      </c>
+      <c r="E21" t="str">
+        <v>转向油更换</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2017-03-09 11:32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>大众帕萨特</v>
+      </c>
+      <c r="C22" t="str">
+        <v>15939266428</v>
+      </c>
+      <c r="D22" t="str">
+        <v>AC686C</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2017-03-09 10:50</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>奔驰</v>
+      </c>
+      <c r="B23" t="str">
+        <v>4.6万</v>
+      </c>
+      <c r="C23" t="str">
+        <v>18639012151</v>
+      </c>
+      <c r="D23" t="str">
+        <v>予A1MQ95</v>
+      </c>
+      <c r="E23" t="str">
+        <v>更换右前下支臂</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2017-03-09 08:59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>赛欧</v>
+      </c>
+      <c r="B24" t="str">
+        <v>43000</v>
+      </c>
+      <c r="C24" t="str">
+        <v>13592457104</v>
+      </c>
+      <c r="D24" t="str">
+        <v>豫a6ry80</v>
+      </c>
+      <c r="E24" t="str">
+        <v>追尾其他车辆，引擎盖变形，需要维修</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2017-03-09 08:55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>迈腾</v>
+      </c>
+      <c r="B25" t="str">
+        <v>80000</v>
+      </c>
+      <c r="C25" t="str">
+        <v>13838562920</v>
+      </c>
+      <c r="D25" t="str">
+        <v>豫A1EL21</v>
+      </c>
+      <c r="E25" t="str">
+        <v>天窗玻璃突然炸裂了，得换块玻璃</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2017-03-08 19:09</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>黄海期圣V3</v>
+      </c>
+      <c r="B26" t="str">
+        <v>55000</v>
+      </c>
+      <c r="C26" t="str">
+        <v>13837142398</v>
+      </c>
+      <c r="D26" t="str">
+        <v>皖HVN333</v>
+      </c>
+      <c r="E26" t="str">
+        <v>不定时的换档困难</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2017-03-08 16:31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>北京现代瑞纳三厢</v>
+      </c>
+      <c r="B27" t="str">
+        <v>77360km</v>
+      </c>
+      <c r="C27" t="str">
+        <v>13700876608</v>
+      </c>
+      <c r="D27" t="str">
+        <v>豫pe0623</v>
+      </c>
+      <c r="E27" t="str">
+        <v>更换前后保险杠，全车喷漆，车门稍微变形</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2017-03-07 11:54</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>北京现代途胜</v>
+      </c>
+      <c r="B28" t="str">
+        <v>240000</v>
+      </c>
+      <c r="C28" t="str">
+        <v>18574100615</v>
+      </c>
+      <c r="D28" t="str">
+        <v>豫A6052H</v>
+      </c>
+      <c r="E28" t="str">
+        <v>东区修车地点和联系方式</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2017-03-06 14:49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>奥德赛</v>
+      </c>
+      <c r="B29" t="str">
+        <v>34万</v>
+      </c>
+      <c r="C29" t="str">
+        <v>15038058788</v>
+      </c>
+      <c r="D29" t="str">
+        <v>豫A075E8</v>
+      </c>
+      <c r="E29" t="str">
+        <v>清洗喷嘴，检查后减震器</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2017-03-06 11:38</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="B30" t="str">
+        <v>78000</v>
+      </c>
+      <c r="C30" t="str">
+        <v>18639550688</v>
+      </c>
+      <c r="D30" t="str">
+        <v>豫A3F377</v>
+      </c>
+      <c r="E30" t="str">
+        <v>请问店的地址在哪里？</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2017-03-05 14:28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="C31" t="str">
+        <v>18639550688</v>
+      </c>
+      <c r="D31" t="str">
+        <v>豫A3F377</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2017-03-05 14:19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>奥迪a3</v>
+      </c>
+      <c r="B32" t="str">
+        <v>忘记了 2年了</v>
+      </c>
+      <c r="C32" t="str">
+        <v>18638266216</v>
+      </c>
+      <c r="D32" t="str">
+        <v>豫AB21H2</v>
+      </c>
+      <c r="E32" t="str">
+        <v>买了两年了 昨天开始打不着火了 提示蓄电池电量低 怀疑是电池不行了 想换个电池 咱们这儿有原厂的带启停的电瓶吗</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2017-03-05 14:10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="B33" t="str">
+        <v>940000</v>
+      </c>
+      <c r="C33" t="str">
+        <v>18638118571</v>
+      </c>
+      <c r="D33" t="str">
+        <v>豫A7FR60</v>
+      </c>
+      <c r="E33" t="str">
+        <v>高数刹车方向盘抖</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2017-03-05 13:27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="B34" t="str">
+        <v>94000</v>
+      </c>
+      <c r="C34" t="str">
+        <v>18638118571</v>
+      </c>
+      <c r="D34" t="str">
+        <v>豫A7FR60</v>
+      </c>
+      <c r="E34" t="str">
+        <v>高数刹车方向盘抖</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2017-03-05 13:04</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>奥迪A4L</v>
+      </c>
+      <c r="B35" t="str">
+        <v>26000</v>
+      </c>
+      <c r="C35" t="str">
+        <v>15003996756</v>
+      </c>
+      <c r="D35" t="str">
+        <v>豫A3XL02</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2014年4月购车于河南奥鑫4S店，目前里程26000公里。半年前出险车钥匙没电的情况，在洗车行更换电池后，开车跑一趟新电池就没电了。两把钥匙都是如此。前几个月抱着试试心态又更换一下电池，还是开过一趟就没电。今天去4S店检修，说未发现故障，让更换4S店销售的电池来排查故障，换了之后还是同样问题。现在4S店说如果是遥控器有问题的话需要更换新遥控器，但是因为我没有定期在4S店保养，虽然质保期没过，也不负责赔付给我新遥控器。现在我该检查什么？还是找4S店索赔？</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2017-03-04 22:11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2011款迈腾1.4T</v>
+      </c>
+      <c r="B36" t="str">
+        <v>13W</v>
+      </c>
+      <c r="C36" t="str">
+        <v>15838031527</v>
+      </c>
+      <c r="D36" t="str">
+        <v>豫A6U12R</v>
+      </c>
+      <c r="E36" t="str">
+        <v>方向盘转向柱疑似接触不良，一猛打方向盘故障灯亮。</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2017-03-04 17:02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>家轿</v>
+      </c>
+      <c r="B37" t="str">
+        <v>9万</v>
+      </c>
+      <c r="C37" t="str">
+        <v>13603982565</v>
+      </c>
+      <c r="D37" t="str">
+        <v>豫A687BV</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2017-03-04 16:43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>北京汽车E130</v>
+      </c>
+      <c r="B38" t="str">
+        <v>76000</v>
+      </c>
+      <c r="C38" t="str">
+        <v>18838066266</v>
+      </c>
+      <c r="D38" t="str">
+        <v>豫AX772H</v>
+      </c>
+      <c r="E38" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2017-03-04 16:35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>凯迪拉克srx</v>
+      </c>
+      <c r="B39" t="str">
+        <v>40000</v>
+      </c>
+      <c r="C39" t="str">
+        <v>13803786559</v>
+      </c>
+      <c r="D39" t="str">
+        <v>豫AV8W95</v>
+      </c>
+      <c r="E39" t="str">
+        <v>一侧迎宾踏板加后保险杠喷漆</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2017-03-04 16:35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>凯迪拉克srx</v>
+      </c>
+      <c r="B40" t="str">
+        <v>40000</v>
+      </c>
+      <c r="C40" t="str">
+        <v>13803786559</v>
+      </c>
+      <c r="D40" t="str">
+        <v>豫AV8W95</v>
+      </c>
+      <c r="E40" t="str">
+        <v>轮毂刮花</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2017-03-04 16:33</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>北汽幻速h3</v>
+      </c>
+      <c r="B41" t="str">
+        <v>1900</v>
+      </c>
+      <c r="C41" t="str">
+        <v>18637875105</v>
+      </c>
+      <c r="D41" t="str">
+        <v>豫BM3505</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
+        <v xml:space="preserve">年前买车时销售员答应送我六次保养   三年用完
+但是没有给我任何凭证  我现在担心的是 没有凭证以后坐保养他们收费怎么办？</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2017-03-04 14:03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>五菱之光</v>
+      </c>
+      <c r="B42" t="str">
+        <v>64500</v>
+      </c>
+      <c r="C42" t="str">
+        <v>18939576326</v>
+      </c>
+      <c r="D42" t="str">
+        <v>豫a0LS56</v>
+      </c>
+      <c r="E42" t="str">
+        <v>水箱高温，希望帮忙解决问题。</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2017-03-04 13:10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>天籁</v>
+      </c>
+      <c r="B43" t="str">
+        <v>46000</v>
+      </c>
+      <c r="C43" t="str">
+        <v>13283841212</v>
+      </c>
+      <c r="D43" t="str">
+        <v>豫As 25 g 8</v>
+      </c>
+      <c r="E43" t="str">
+        <v>维修</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2017-03-04 12:05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>宝马</v>
+      </c>
+      <c r="B44" t="str">
+        <v>45000</v>
+      </c>
+      <c r="C44" t="str">
+        <v>13803890665</v>
+      </c>
+      <c r="D44" t="str">
+        <v>豫AM916B</v>
+      </c>
+      <c r="E44" t="str">
+        <v>更换刹车片</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2017-03-03 11:59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>10款明锐1.4t</v>
+      </c>
+      <c r="B45" t="str">
+        <v>6.46</v>
+      </c>
+      <c r="C45" t="str">
+        <v>18638767428</v>
+      </c>
+      <c r="D45" t="str">
+        <v>鲁D557A1</v>
+      </c>
+      <c r="E45" t="str">
+        <v>多功能方向盘一个键失灵了；胎压监测故障报警，但胎压正常；排气管突突响，且无水份产生，尾气难闻</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2017-03-03 11:08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>宝马</v>
+      </c>
+      <c r="B46" t="str">
+        <v>45000</v>
+      </c>
+      <c r="C46" t="str">
+        <v>13803890665</v>
+      </c>
+      <c r="D46" t="str">
+        <v>豫am916b</v>
+      </c>
+      <c r="E46" t="str">
+        <v>更换刹车片</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2017-03-03 08:32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>上汽大众朗逸</v>
+      </c>
+      <c r="B47" t="str">
+        <v>56587</v>
+      </c>
+      <c r="C47" t="str">
+        <v>18538235313</v>
+      </c>
+      <c r="D47" t="str">
+        <v>豫A9WP88</v>
+      </c>
+      <c r="E47" t="str">
+        <v>左后叶子板钣金喷漆，其他部位喷漆。</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2017-03-03 07:09</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>东风小康c37</v>
+      </c>
+      <c r="B48" t="str">
+        <v>40350</v>
+      </c>
+      <c r="C48" t="str">
+        <v>15538152525</v>
+      </c>
+      <c r="D48" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E48" t="str">
+        <v>车子启动异响</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2017-03-02 15:15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>东风本田CRV</v>
+      </c>
+      <c r="B49" t="str">
+        <v>95000</v>
+      </c>
+      <c r="C49" t="str">
+        <v>13838249921</v>
+      </c>
+      <c r="D49" t="str">
+        <v>豫A358HA</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1.前保险杠剐蹭喷漆，2.后备箱门车牌右上方钣金喷漆，3.左后方刹车灯不亮，4.想换一个遮光的车膜。希望看到给我回复，因为上班要用车，想周六送过去，周日提车。如果时间紧张，也可周五下班送去。</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2017-03-02 14:39</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>途观</v>
+      </c>
+      <c r="B50" t="str">
+        <v>42000</v>
+      </c>
+      <c r="C50" t="str">
+        <v>13838550607</v>
+      </c>
+      <c r="D50" t="str">
+        <v>豫A2LV66</v>
+      </c>
+      <c r="E50" t="str">
+        <v>前减震异响，去维修厂查看，说减震没问题，把胶套换了，但是还是响。过坑的时候不响，但急加速或者刹车就会异响。</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2017-03-02 11:10</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>传祺gs5</v>
+      </c>
+      <c r="B51" t="str">
+        <v>80000</v>
+      </c>
+      <c r="C51" t="str">
+        <v>13903843031</v>
+      </c>
+      <c r="D51" t="str">
+        <v>豫A8AZ88</v>
+      </c>
+      <c r="E51" t="str" xml:space="preserve">
+        <v xml:space="preserve">冷车一键启动，车辆抖动厉害，转速不稳定
+另外3500转以上，有股焦糊味</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2017-03-02 11:09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>东风雷诺科雷傲</v>
+      </c>
+      <c r="B52" t="str">
+        <v>5300</v>
+      </c>
+      <c r="C52" t="str">
+        <v>15737115509</v>
+      </c>
+      <c r="D52" t="str">
+        <v>豫A85</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>2017-03-02 08:28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>13款雪佛兰科鲁兹</v>
+      </c>
+      <c r="B53" t="str">
+        <v>83000</v>
+      </c>
+      <c r="C53" t="str">
+        <v>15839110158</v>
+      </c>
+      <c r="D53" t="str">
+        <v>豫A3JF21</v>
+      </c>
+      <c r="E53" t="str">
+        <v>13款雪佛兰科鲁兹跑了8万多公里，现在出现一顿一顿的症状。跑了两天故障灯也亮了，是怎么回事啊？</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2017-03-02 08:21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>途胜</v>
+      </c>
+      <c r="B54" t="str">
+        <v>124000</v>
+      </c>
+      <c r="C54" t="str">
+        <v>15738399007</v>
+      </c>
+      <c r="D54" t="str">
+        <v>豫A885AR</v>
+      </c>
+      <c r="E54" t="str">
+        <v>左后车灯挂烂了，左边后保险杠有点变形</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2017-03-02 08:08</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>福特锐界</v>
+      </c>
+      <c r="B55" t="str">
+        <v>20000</v>
+      </c>
+      <c r="C55" t="str">
+        <v>18538186262</v>
+      </c>
+      <c r="D55" t="str">
+        <v>豫A9Q65V</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2017-03-01 22:57</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>别克凯越</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8万</v>
+      </c>
+      <c r="C56" t="str">
+        <v>18624932157</v>
+      </c>
+      <c r="D56" t="str">
+        <v>豫A769DW</v>
+      </c>
+      <c r="E56" t="str">
+        <v>开着的时候转向方向盘有点沉，昨天在咱们梦工厂做个大保养，同时做了四轮定位，今天开着的时候还是感觉转向的时候方向盘有点沉，是什么情况？</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2017-03-01 11:59</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>起亚K5</v>
+      </c>
+      <c r="B57" t="str">
+        <v>3.4万</v>
+      </c>
+      <c r="C57" t="str">
+        <v>15093182957</v>
+      </c>
+      <c r="D57" t="str">
+        <v>豫AC87N2</v>
+      </c>
+      <c r="E57" t="str">
+        <v>车辆过低洼路段 方向盘抖动厉害</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2017-03-01 11:41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>10款景程</v>
+      </c>
+      <c r="B58" t="str">
+        <v>108900</v>
+      </c>
+      <c r="C58" t="str">
+        <v>15639001205</v>
+      </c>
+      <c r="D58" t="str">
+        <v>豫B29L67</v>
+      </c>
+      <c r="E58" t="str">
+        <v>怠速震动 方向盘和车内抖动 起步抖动也厉害 过四十抖动就不明显了</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2017-03-01 11:12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>广本奥德赛</v>
+      </c>
+      <c r="B59" t="str">
+        <v>27000</v>
+      </c>
+      <c r="C59" t="str">
+        <v>15890176737</v>
+      </c>
+      <c r="D59" t="str">
+        <v>豫A0M07C</v>
+      </c>
+      <c r="E59" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F59" t="str">
+        <v>2017-03-01 11:08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>雪佛兰科鲁兹</v>
+      </c>
+      <c r="B60" t="str">
+        <v>83000</v>
+      </c>
+      <c r="C60" t="str">
+        <v>18037125553</v>
+      </c>
+      <c r="D60" t="str">
+        <v>豫NJR 785</v>
+      </c>
+      <c r="E60" t="str">
+        <v>发动机故障灯亮，自动挡车空档车抖</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2017-03-01 09:10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>起亚赛拉图</v>
+      </c>
+      <c r="B61" t="str">
+        <v>62000</v>
+      </c>
+      <c r="C61" t="str">
+        <v>15378780983</v>
+      </c>
+      <c r="D61" t="str">
+        <v>829x7</v>
+      </c>
+      <c r="E61" t="str">
+        <v>怠速不稳</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2017-03-01 08:58</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>北京现代朗动</v>
+      </c>
+      <c r="B62" t="str">
+        <v>4945</v>
+      </c>
+      <c r="C62" t="str">
+        <v>15093247268</v>
+      </c>
+      <c r="D62" t="str">
+        <v>豫KX2357</v>
+      </c>
+      <c r="E62" t="str">
+        <v>右前灯下方有一道20cm左右的划痕想喷下漆.担心跟车本身不一色更闹心.求老杨指招</v>
+      </c>
+      <c r="F62" t="str">
+        <v>2017-02-28 22:43</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>蒙迪欧</v>
+      </c>
+      <c r="B63" t="str">
+        <v>30000</v>
+      </c>
+      <c r="C63" t="str">
+        <v>18530936266</v>
+      </c>
+      <c r="D63" t="str">
+        <v>豫A5G83C</v>
+      </c>
+      <c r="E63" t="str">
+        <v>保养</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2017-02-28 14:12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>广汽丰田雷凌</v>
+      </c>
+      <c r="B64" t="str">
+        <v>17200</v>
+      </c>
+      <c r="C64" t="str">
+        <v>13938479475</v>
+      </c>
+      <c r="D64" t="str">
+        <v>豫A3G89C</v>
+      </c>
+      <c r="E64" t="str">
+        <v>前轮倒车有杀车转向响声。</v>
+      </c>
+      <c r="F64" t="str">
+        <v>2017-02-28 13:12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>新昂科拉</v>
+      </c>
+      <c r="B65" t="str">
+        <v>5678</v>
+      </c>
+      <c r="C65" t="str">
+        <v>13783409527</v>
+      </c>
+      <c r="D65" t="str">
+        <v>豫A85XF7</v>
+      </c>
+      <c r="E65" t="str">
+        <v>仪表盘变成英文了</v>
+      </c>
+      <c r="F65" t="str">
+        <v>2017-02-28 11:55</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B66" t="str">
+        <v>65713</v>
+      </c>
+      <c r="C66" t="str">
+        <v>13014514448</v>
+      </c>
+      <c r="D66" t="str">
+        <v>豫A1UY19</v>
+      </c>
+      <c r="E66" t="str">
+        <v>方向盘抖</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2017-02-28 11:27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>三菱翼神</v>
+      </c>
+      <c r="C67" t="str">
+        <v>13838186692</v>
+      </c>
+      <c r="D67" t="str">
+        <v>豫A2U008</v>
+      </c>
+      <c r="E67" t="str">
+        <v>更换蓄电池，想咨询下风帆电瓶55D的价格！</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2017-02-27 16:46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>北汽威旺</v>
+      </c>
+      <c r="B68" t="str">
+        <v>5万</v>
+      </c>
+      <c r="C68" t="str">
+        <v>18539301148</v>
+      </c>
+      <c r="D68" t="str">
+        <v>没有</v>
+      </c>
+      <c r="E68" t="str">
+        <v>我的车已改天然气，有一段时间没用现在想用加上气以后车加不上油门，走的一换气车就加不上油门，请问大师咋回事</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2017-02-27 15:51</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>传祺gs5</v>
+      </c>
+      <c r="B69" t="str">
+        <v>65000</v>
+      </c>
+      <c r="C69" t="str">
+        <v>13007539509</v>
+      </c>
+      <c r="D69" t="str">
+        <v>AW059L</v>
+      </c>
+      <c r="E69" t="str">
+        <v>换皮带</v>
+      </c>
+      <c r="F69" t="str">
+        <v>2017-02-27 11:59</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>比亚迪L3</v>
+      </c>
+      <c r="B70" t="str">
+        <v>35100</v>
+      </c>
+      <c r="C70" t="str">
+        <v>15093137352</v>
+      </c>
+      <c r="D70" t="str">
+        <v>予A1WD19</v>
+      </c>
+      <c r="E70" t="str">
+        <v>车内噪音比较大，想做个全车隔音，大概什么价位</v>
+      </c>
+      <c r="F70" t="str">
+        <v>2017-02-27 11:42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>三菱翼神</v>
+      </c>
+      <c r="C71" t="str">
+        <v>13838186692</v>
+      </c>
+      <c r="D71" t="str">
+        <v>豫A2u008</v>
+      </c>
+      <c r="E71" t="str">
+        <v>换电瓶</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2017-02-27 11:09</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>北汽幻速s3</v>
+      </c>
+      <c r="B72" t="str">
+        <v>9000</v>
+      </c>
+      <c r="C72" t="str">
+        <v>15139714518</v>
+      </c>
+      <c r="D72" t="str">
+        <v>豫n7g225</v>
+      </c>
+      <c r="E72" t="str">
+        <v>车子水温不稳定一会高一会正常</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2017-02-26 21:33</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>经典福特</v>
+      </c>
+      <c r="B73" t="str">
+        <v>28600左右</v>
+      </c>
+      <c r="C73" t="str">
+        <v>13663001026</v>
+      </c>
+      <c r="D73" t="str">
+        <v>豫AZ758L</v>
+      </c>
+      <c r="E73" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.右前大灯时而不亮，行车颠簸后又会亮
+2.导航时有自动断电现象，两三秒后，又恢复正常。</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2017-02-26 08:45</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>荣威550</v>
+      </c>
+      <c r="B74" t="str">
+        <v>65000</v>
+      </c>
+      <c r="C74" t="str">
+        <v>17797751550</v>
+      </c>
+      <c r="D74" t="str">
+        <v>AP962N</v>
+      </c>
+      <c r="E74" t="str">
+        <v>雨刷吱吱响，恢复不到原来位置。车门玻璃异响。起步车抖。需要喷漆。</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2017-02-26 07:47</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>长城</v>
+      </c>
+      <c r="B75" t="str">
+        <v>47974</v>
+      </c>
+      <c r="C75" t="str">
+        <v>13526707752</v>
+      </c>
+      <c r="D75" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E75" t="str">
+        <v/>
+      </c>
+      <c r="F75" t="str">
+        <v>2017-02-25 16:41</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>07款天籁</v>
+      </c>
+      <c r="B76" t="str">
+        <v>17万</v>
+      </c>
+      <c r="C76" t="str">
+        <v>13849108190</v>
+      </c>
+      <c r="D76" t="str">
+        <v>豫AM367D</v>
+      </c>
+      <c r="E76" t="str" xml:space="preserve">
+        <v xml:space="preserve">1.车速到100方向盘抖动，过120抖动减弱，做完平衡轮胎症状没改变，
+2.方向略往左偏
+4S店检查说前右下支臂胶套烂了，说需要换下支臂！</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2017-02-25 16:24</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>五菱宏光</v>
+      </c>
+      <c r="B77" t="str">
+        <v>33700</v>
+      </c>
+      <c r="C77" t="str">
+        <v>15838245538</v>
+      </c>
+      <c r="D77" t="str">
+        <v>豫AC281D</v>
+      </c>
+      <c r="E77" t="str">
+        <v>汽车右前轮悬挂系统异响。</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2017-02-24 21:32</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>奇瑞V5</v>
+      </c>
+      <c r="B78" t="str">
+        <v>10万</v>
+      </c>
+      <c r="C78" t="str">
+        <v>13298169902</v>
+      </c>
+      <c r="D78" t="str">
+        <v>豫A337PE</v>
+      </c>
+      <c r="E78" t="str">
+        <v>全车喷漆多少钱，黑色，都是小划痕</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2017-02-24 13:49</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>丰田锐志</v>
+      </c>
+      <c r="B79" t="str">
+        <v>11万</v>
+      </c>
+      <c r="C79" t="str">
+        <v>18103920666</v>
+      </c>
+      <c r="D79" t="str">
+        <v>豫FYD989</v>
+      </c>
+      <c r="E79" t="str">
+        <v>方向盘打死，会蹭护泥板。</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2017-02-24 11:51</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>瑞风s3</v>
+      </c>
+      <c r="B80" t="str">
+        <v>34000</v>
+      </c>
+      <c r="C80" t="str">
+        <v>13653921114</v>
+      </c>
+      <c r="D80" t="str">
+        <v>豫f65992</v>
+      </c>
+      <c r="E80" t="str">
+        <v>车速超过80，防侧滑灯就亮了，咋回事</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2017-02-24 11:11</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>奥迪A6L</v>
+      </c>
+      <c r="B81" t="str">
+        <v>48000</v>
+      </c>
+      <c r="C81" t="str">
+        <v>15638216366</v>
+      </c>
+      <c r="D81" t="str">
+        <v>豫AV181Q</v>
+      </c>
+      <c r="E81" t="str">
+        <v>车右前侧擦伤</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2017-02-24 11:09</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>北京现代朗动</v>
+      </c>
+      <c r="B82" t="str">
+        <v>4500</v>
+      </c>
+      <c r="C82" t="str">
+        <v>18638581855</v>
+      </c>
+      <c r="D82" t="str">
+        <v>豫A H5L81</v>
+      </c>
+      <c r="E82" t="str">
+        <v>方向盘发打转向 咯吱咯吱响 路不好dun的也有异响</v>
+      </c>
+      <c r="F82" t="str">
+        <v>2017-02-23 17:57</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>别克</v>
+      </c>
+      <c r="B83" t="str">
+        <v>13642</v>
+      </c>
+      <c r="C83" t="str">
+        <v>15290861917</v>
+      </c>
+      <c r="D83" t="str">
+        <v>豫AR97C8</v>
+      </c>
+      <c r="E83" t="str">
+        <v>因为之前有过特别坑洼的地形，车下边好像进石子了，一二三档的时候，车下边当当的响，四档以后就不响了。轮胎里没见有石子，不知什么原因，该怎么办？</v>
+      </c>
+      <c r="F83" t="str">
+        <v>2017-02-23 13:46</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>北京现代朗动</v>
+      </c>
+      <c r="B84" t="str">
+        <v>43436</v>
+      </c>
+      <c r="C84" t="str">
+        <v>18638581855</v>
+      </c>
+      <c r="D84" t="str">
+        <v>豫A H5L81</v>
+      </c>
+      <c r="E84" t="str">
+        <v>方向盘打方向咯吱咯吱响</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2017-02-23 12:08</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>北京现代ix35自动挡</v>
+      </c>
+      <c r="B85" t="str">
+        <v>10公里</v>
+      </c>
+      <c r="C85" t="str">
+        <v>13838234274</v>
+      </c>
+      <c r="D85" t="str">
+        <v>722EY</v>
+      </c>
+      <c r="E85" t="str">
+        <v>在时速20到60之间，自动挡变档时，整个车的动力好像瞬间丧失，但是转速表还会正常运作并增加转速，随后就瞬间又恢复了动力，整个车猛地抽一下，然後完成变档过程</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2017-02-23 12:02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>朗逸</v>
+      </c>
+      <c r="B86" t="str">
+        <v>23000</v>
+      </c>
+      <c r="C86" t="str">
+        <v>15036137692</v>
+      </c>
+      <c r="D86" t="str">
+        <v>豫A7D32T</v>
+      </c>
+      <c r="E86" t="str">
+        <v>车子低速过坑洼时左后轮方向会发出吱吱呀呀的响声</v>
+      </c>
+      <c r="F86" t="str">
+        <v>2017-02-23 12:01</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>本田 杰德</v>
+      </c>
+      <c r="B87" t="str">
+        <v>30949</v>
+      </c>
+      <c r="C87" t="str">
+        <v>13603990607</v>
+      </c>
+      <c r="D87" t="str">
+        <v>豫A0ZJ10</v>
+      </c>
+      <c r="E87" t="str">
+        <v>喷漆 保养</v>
+      </c>
+      <c r="F87" t="str">
+        <v>2017-02-23 07:44</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>本田凌派</v>
+      </c>
+      <c r="B88" t="str">
+        <v>7000</v>
+      </c>
+      <c r="C88" t="str">
+        <v>15737170797</v>
+      </c>
+      <c r="D88" t="str">
+        <v>豫A0sp90</v>
+      </c>
+      <c r="E88" t="str">
+        <v>雨刮臂带刮片多少钱？</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2017-02-21 15:41</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>15经典科鲁兹</v>
+      </c>
+      <c r="B89" t="str">
+        <v>14230</v>
+      </c>
+      <c r="C89" t="str">
+        <v>13103898882</v>
+      </c>
+      <c r="D89" t="str">
+        <v>豫UU2086</v>
+      </c>
+      <c r="E89" t="str">
+        <v>有半年多了 经常在停下后准备调头、准备倒车、起步时会发出咯吱吱的声音 ，车在行走时拐弯不响 ，不是每次都想尤其是在拐弯和不平路上会多些。去4S店几次都不响 最后在上个月去时响了 工作人员说是在他那安装的发动机护板响 紧啦紧螺丝 我看到螺丝垫片都断裂啦 ，上完说好啦 可走后没两天还是响 请问会是什么问题</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2017-02-21 11:21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>雪铁龙C4L</v>
+      </c>
+      <c r="B90" t="str">
+        <v>26450</v>
+      </c>
+      <c r="C90" t="str">
+        <v>13271557535</v>
+      </c>
+      <c r="D90" t="str">
+        <v>豫Ag93J2</v>
+      </c>
+      <c r="E90" t="str">
+        <v>我想咨询一下，我的1.8L的排量，太费油了。100块钱的油跑120公里。这正常么？</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2017-02-20 23:52</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="B91" t="str">
+        <v>35000</v>
+      </c>
+      <c r="C91" t="str">
+        <v>18838125890</v>
+      </c>
+      <c r="D91" t="str">
+        <v>豫AE99V3</v>
+      </c>
+      <c r="E91" t="str">
+        <v>后保险杠喷漆</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2017-02-20 17:01</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>08年北斗星1.4</v>
+      </c>
+      <c r="B92" t="str">
+        <v>80000</v>
+      </c>
+      <c r="C92" t="str">
+        <v>13849208890</v>
+      </c>
+      <c r="D92" t="str">
+        <v>豫FVW886</v>
+      </c>
+      <c r="E92" t="str">
+        <v>你好！无论升2档还是降2档，无论热车还是凉车，就是换2档抖动的厉害，不够平顺，赐教！谢谢</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2017-02-20 11:52</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>桑塔纳</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8000</v>
+      </c>
+      <c r="C93" t="str">
+        <v>18236928233</v>
+      </c>
+      <c r="D93" t="str">
+        <v>豫A6w82z</v>
+      </c>
+      <c r="E93" t="str">
+        <v>车前轮起了个小包，我在航空港区</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2017-02-20 10:31</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>一汽大众速腾</v>
+      </c>
+      <c r="B94" t="str">
+        <v>28000</v>
+      </c>
+      <c r="C94" t="str">
+        <v>15617958567</v>
+      </c>
+      <c r="D94" t="str">
+        <v>豫AH66W5</v>
+      </c>
+      <c r="E94" t="str">
+        <v>飞轮进水生锈然后坏了，4s店说这是我自己造成的，让我自费更换</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2017-02-19 14:57</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>别克君越</v>
+      </c>
+      <c r="B95" t="str">
+        <v>58000</v>
+      </c>
+      <c r="C95" t="str">
+        <v>18539955667</v>
+      </c>
+      <c r="D95" t="str">
+        <v>豫af92e2</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2017-02-19 13:58</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>轿车</v>
+      </c>
+      <c r="B96" t="str">
+        <v>37000</v>
+      </c>
+      <c r="C96" t="str">
+        <v>13783446552</v>
+      </c>
+      <c r="D96" t="str">
+        <v>豫A62SG0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>左侧叶子板需要钣金喷漆、右侧倒车镜被挂车门凹进去一点。刹车条需要更换费用分别大概是多少？</v>
+      </c>
+      <c r="F96" t="str">
+        <v>2017-02-19 11:15</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>吉利  帝豪gl  金色</v>
+      </c>
+      <c r="B97" t="str">
+        <v>700</v>
+      </c>
+      <c r="C97" t="str">
+        <v>15637152165</v>
+      </c>
+      <c r="D97" t="str">
+        <v>豫BDl873</v>
+      </c>
+      <c r="E97" t="str">
+        <v>补漆</v>
+      </c>
+      <c r="F97" t="str">
+        <v>2017-02-19 06:50</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>起亚K5</v>
+      </c>
+      <c r="B98" t="str">
+        <v>106000</v>
+      </c>
+      <c r="C98" t="str">
+        <v>18838109260</v>
+      </c>
+      <c r="D98" t="str">
+        <v>鲁C6860G</v>
+      </c>
+      <c r="E98" t="str">
+        <v>车辆行驶过程中颠簸比较厉害，发动机声音比较闷</v>
+      </c>
+      <c r="F98" t="str">
+        <v>2017-02-18 17:33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>福特福睿斯</v>
+      </c>
+      <c r="B99" t="str">
+        <v>9000</v>
+      </c>
+      <c r="C99" t="str">
+        <v>13213063315</v>
+      </c>
+      <c r="D99" t="str">
+        <v>豫A22A9Y</v>
+      </c>
+      <c r="E99" t="str">
+        <v>你们店的地址短信我删掉了，再发给我一次吧</v>
+      </c>
+      <c r="F99" t="str">
+        <v>2017-02-18 11:35</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>长安欧诺</v>
+      </c>
+      <c r="B100" t="str">
+        <v>32000</v>
+      </c>
+      <c r="C100" t="str">
+        <v>18037338692</v>
+      </c>
+      <c r="D100" t="str">
+        <v>豫AW5W78</v>
+      </c>
+      <c r="E100" t="str">
+        <v>车子跑偏做过四轮定位依然存在</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2017-02-18 08:28</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>新帕萨特</v>
+      </c>
+      <c r="B101" t="str">
+        <v>198000</v>
+      </c>
+      <c r="C101" t="str">
+        <v>13253531225</v>
+      </c>
+      <c r="D101" t="str">
+        <v>豫AR122H</v>
+      </c>
+      <c r="E101" t="str">
+        <v>烧机油</v>
+      </c>
+      <c r="F101" t="str">
+        <v>2017-02-17 20:36</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>东风菱智</v>
+      </c>
+      <c r="B102" t="str">
+        <v>68780</v>
+      </c>
+      <c r="C102" t="str">
+        <v>15538025287</v>
+      </c>
+      <c r="D102" t="str">
+        <v>豫an08h7</v>
+      </c>
+      <c r="E102" t="str">
+        <v>气缸垫破损，发动机进水</v>
+      </c>
+      <c r="F102" t="str">
+        <v>2017-02-17 18:00</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>北京现代名图</v>
+      </c>
+      <c r="B103" t="str">
+        <v>41307</v>
+      </c>
+      <c r="C103" t="str">
+        <v>13838151427</v>
+      </c>
+      <c r="D103" t="str">
+        <v>豫AC21D1</v>
+      </c>
+      <c r="E103" t="str">
+        <v>天窗有时打不开，打开以后关不上</v>
+      </c>
+      <c r="F103" t="str">
+        <v>2017-02-17 11:13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>马自达</v>
+      </c>
+      <c r="B104" t="str">
+        <v>75000</v>
+      </c>
+      <c r="C104" t="str">
+        <v>15238077867</v>
+      </c>
+      <c r="D104" t="str">
+        <v>豫A7NE72</v>
+      </c>
+      <c r="E104" t="str">
+        <v>发动机故障灯亮，去四儿子店说是氧传感器和三元催化的问题</v>
+      </c>
+      <c r="F104" t="str">
+        <v>2017-02-16 20:34</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>长安之星</v>
+      </c>
+      <c r="B105" t="str">
+        <v>62800</v>
+      </c>
+      <c r="C105" t="str">
+        <v>18137777519</v>
+      </c>
+      <c r="D105" t="str">
+        <v>豫A3Y810</v>
+      </c>
+      <c r="E105" t="str">
+        <v>水箱高温，气门维修</v>
+      </c>
+      <c r="F105" t="str">
+        <v>2017-02-16 15:13</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>高尔夫4</v>
+      </c>
+      <c r="B106" t="str">
+        <v>14万</v>
+      </c>
+      <c r="C106" t="str">
+        <v>15981887786</v>
+      </c>
+      <c r="D106" t="str">
+        <v>豫AJD858</v>
+      </c>
+      <c r="F106" t="str">
+        <v>2017-02-16 14:31</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>途安L</v>
+      </c>
+      <c r="B107" t="str">
+        <v>14000</v>
+      </c>
+      <c r="C107" t="str">
+        <v>15039055682</v>
+      </c>
+      <c r="D107" t="str">
+        <v>豫A8Z08E</v>
+      </c>
+      <c r="E107" t="str">
+        <v>你好，我的车被蹭了，左后轮上方，金属应该是叶子板凹陷，后保险杠小范围脱漆，咱那修复多少钱？请尽快联系我，我考虑是自己修还是走保险</v>
+      </c>
+      <c r="F107" t="str">
+        <v>2017-02-16 12:41</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>高尔夫4</v>
+      </c>
+      <c r="B108" t="str">
+        <v>14万</v>
+      </c>
+      <c r="C108" t="str">
+        <v>15981887786</v>
+      </c>
+      <c r="D108" t="str">
+        <v>豫AJD858</v>
+      </c>
+      <c r="E108" t="str">
+        <v>左后视镜维修，年检前检修</v>
+      </c>
+      <c r="F108" t="str">
+        <v>2017-02-16 12:23</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>A6</v>
+      </c>
+      <c r="B109" t="str">
+        <v>10300</v>
+      </c>
+      <c r="C109" t="str">
+        <v>15939670000</v>
+      </c>
+      <c r="D109" t="str">
+        <v>922</v>
+      </c>
+      <c r="E109" t="str">
+        <v>做漆面保养</v>
+      </c>
+      <c r="F109" t="str">
+        <v>2017-02-16 08:33</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>迈腾</v>
+      </c>
+      <c r="B110" t="str">
+        <v>19000</v>
+      </c>
+      <c r="C110" t="str">
+        <v>15136153228</v>
+      </c>
+      <c r="D110" t="str">
+        <v>豫AZ87J6</v>
+      </c>
+      <c r="E110" t="str">
+        <v>修补车右后门划痕</v>
+      </c>
+      <c r="F110" t="str">
+        <v>2017-02-16 08:07</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="B111" t="str">
+        <v>64000</v>
+      </c>
+      <c r="C111" t="str">
+        <v>15038381779</v>
+      </c>
+      <c r="D111" t="str">
+        <v>豫ah8t02</v>
+      </c>
+      <c r="E111" t="str">
+        <v>汽油泵坏了！换个新的！新油泵嗡嗡响噪音很大！怎么解决</v>
+      </c>
+      <c r="F111" t="str">
+        <v>2017-02-15 19:26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>东风本田CRV</v>
+      </c>
+      <c r="B112" t="str">
+        <v>85000</v>
+      </c>
+      <c r="C112" t="str">
+        <v>13838249921</v>
+      </c>
+      <c r="D112" t="str">
+        <v>豫A358HA</v>
+      </c>
+      <c r="E112" t="str">
+        <v>前保险杠变形，掉漆</v>
+      </c>
+      <c r="F112" t="str">
+        <v>2017-02-15 09:57</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>新赛欧3</v>
+      </c>
+      <c r="B113" t="str">
+        <v>8600</v>
+      </c>
+      <c r="C113" t="str">
+        <v>15037169213</v>
+      </c>
+      <c r="D113" t="str">
+        <v>豫A5Q36U</v>
+      </c>
+      <c r="E113" t="str">
+        <v>挂掉漆</v>
+      </c>
+      <c r="F113" t="str">
+        <v>2017-02-15 09:12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>全新胜达2.4</v>
+      </c>
+      <c r="B114" t="str">
+        <v>28000</v>
+      </c>
+      <c r="C114" t="str">
+        <v>13383865030</v>
+      </c>
+      <c r="D114" t="str">
+        <v>豫A3XL76</v>
+      </c>
+      <c r="E114" t="str">
+        <v>请问28000需要清洗喷油嘴和解气们门吗？谢谢</v>
+      </c>
+      <c r="F114" t="str">
+        <v>2017-02-14 22:27</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>江淮和悦rs</v>
+      </c>
+      <c r="B115" t="str">
+        <v>5</v>
+      </c>
+      <c r="C115" t="str">
+        <v>18238579895</v>
+      </c>
+      <c r="D115" t="str">
+        <v>yfe2219</v>
+      </c>
+      <c r="E115" t="str">
+        <v>老杨你好。请问燃油添加剂有用吗？三元催化如何清洗</v>
+      </c>
+      <c r="F115" t="str">
+        <v>2017-02-14 21:50</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>福特福睿斯</v>
+      </c>
+      <c r="B116" t="str">
+        <v>24000</v>
+      </c>
+      <c r="C116" t="str">
+        <v>13569526157</v>
+      </c>
+      <c r="D116" t="str">
+        <v>豫AB53S5</v>
+      </c>
+      <c r="E116" t="str">
+        <v>能不能推荐一个经开区这边的既便宜又修车靠谱的汽修厂？？</v>
+      </c>
+      <c r="F116" t="str">
+        <v>2017-02-14 18:41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>道奇酷威</v>
+      </c>
+      <c r="B117" t="str">
+        <v>101389</v>
+      </c>
+      <c r="C117" t="str">
+        <v>13140039003</v>
+      </c>
+      <c r="D117" t="str">
+        <v>豫A93393</v>
+      </c>
+      <c r="E117" t="str">
+        <v>到一定的转速不会自动换挡了，手动挡也不管用了。</v>
+      </c>
+      <c r="F117" t="str">
+        <v>2017-02-14 18:23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>12款大众cc</v>
+      </c>
+      <c r="B118" t="str">
+        <v>990000</v>
+      </c>
+      <c r="C118" t="str">
+        <v>18539925566</v>
+      </c>
+      <c r="D118" t="str">
+        <v>豫a218cc</v>
+      </c>
+      <c r="E118" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F118" t="str">
+        <v>2017-02-14 14:56</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>本田凌派</v>
+      </c>
+      <c r="B119" t="str">
+        <v>8万</v>
+      </c>
+      <c r="C119" t="str">
+        <v>13838201578</v>
+      </c>
+      <c r="D119" t="str">
+        <v>9YW08</v>
+      </c>
+      <c r="E119" t="str">
+        <v>维修</v>
+      </c>
+      <c r="F119" t="str">
+        <v>2017-02-14 11:13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>迈腾</v>
+      </c>
+      <c r="B120" t="str">
+        <v>72000</v>
+      </c>
+      <c r="C120" t="str">
+        <v>18103815383</v>
+      </c>
+      <c r="D120" t="str">
+        <v>f272t</v>
+      </c>
+      <c r="E120" t="str">
+        <v>车辆冷车启动打火时间比较长，但是使用后再启动比较快！！如何处理？</v>
+      </c>
+      <c r="F120" t="str">
+        <v>2017-02-14 09:24</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>奇俊</v>
+      </c>
+      <c r="B121" t="str">
+        <v>50000</v>
+      </c>
+      <c r="C121" t="str">
+        <v>13633821067</v>
+      </c>
+      <c r="D121" t="str">
+        <v>豫AN7L00</v>
+      </c>
+      <c r="E121" t="str">
+        <v>右后侧门钣金喷漆</v>
+      </c>
+      <c r="F121" t="str">
+        <v>2017-02-14 08:25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>长安之星2</v>
+      </c>
+      <c r="B122" t="str">
+        <v>54000</v>
+      </c>
+      <c r="C122" t="str">
+        <v>13592675209</v>
+      </c>
+      <c r="D122" t="str">
+        <v>豫AZ683M</v>
+      </c>
+      <c r="E122" t="str">
+        <v>保养，中门打不开，左前轮刹车片异响。上次您打电话我没接着。。。。请下午打电话。</v>
+      </c>
+      <c r="F122" t="str">
+        <v>2017-02-13 19:29</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>现代飞思</v>
+      </c>
+      <c r="B123" t="str">
+        <v>22000</v>
+      </c>
+      <c r="C123" t="str">
+        <v>18638787733</v>
+      </c>
+      <c r="D123" t="str">
+        <v>豫A9</v>
+      </c>
+      <c r="E123" t="str">
+        <v>车前保险杠右侧蹭了</v>
+      </c>
+      <c r="F123" t="str">
+        <v>2017-02-13 14:17</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>三厢家轿</v>
+      </c>
+      <c r="B124" t="str">
+        <v>9万</v>
+      </c>
+      <c r="C124" t="str">
+        <v>13603982565</v>
+      </c>
+      <c r="D124" t="str">
+        <v>687BV</v>
+      </c>
+      <c r="E124" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F124" t="str">
+        <v>2017-02-13 12:53</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>朗逸</v>
+      </c>
+      <c r="B125" t="str">
+        <v>50000</v>
+      </c>
+      <c r="C125" t="str">
+        <v>18625587522</v>
+      </c>
+      <c r="D125" t="str">
+        <v>豫A6</v>
+      </c>
+      <c r="E125" t="str">
+        <v>朗逸09款  2.0  AT  每次汽车刚启动方向盘很轻、为什么开一会儿方向盘就变沉了</v>
+      </c>
+      <c r="F125" t="str">
+        <v>2017-02-13 11:55</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>威朗</v>
+      </c>
+      <c r="B126" t="str">
+        <v>2112</v>
+      </c>
+      <c r="C126" t="str">
+        <v>18839794138</v>
+      </c>
+      <c r="D126" t="str">
+        <v>豫B41795</v>
+      </c>
+      <c r="E126" t="str">
+        <v>车门内部，开窗开关地方漏风是什么原因</v>
+      </c>
+      <c r="F126" t="str">
+        <v>2017-02-13 11:48</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>宝骏730</v>
+      </c>
+      <c r="B127" t="str">
+        <v>11156</v>
+      </c>
+      <c r="C127" t="str">
+        <v>15893016652</v>
+      </c>
+      <c r="D127" t="str">
+        <v>豫hl8885</v>
+      </c>
+      <c r="E127" t="str">
+        <v>去年四月份买的车，以旧换新宝骏补贴3000,销售人员说最多3个月就补贴，现在快一年了还没补贴3000</v>
+      </c>
+      <c r="F127" t="str">
+        <v>2017-02-13 11:45</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>大众途威</v>
+      </c>
+      <c r="B128" t="str">
+        <v>34000</v>
+      </c>
+      <c r="C128" t="str">
+        <v>13837608998</v>
+      </c>
+      <c r="D128" t="str">
+        <v>QQ 009</v>
+      </c>
+      <c r="E128" t="str">
+        <v>启动打火以前是一两秒，现在打火四到五秒以上才启动，为什么？</v>
+      </c>
+      <c r="F128" t="str">
+        <v>2017-02-13 11:44</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>翼虎</v>
+      </c>
+      <c r="B129" t="str">
+        <v>2.5万</v>
+      </c>
+      <c r="C129" t="str">
+        <v>18236405609</v>
+      </c>
+      <c r="D129" t="str">
+        <v>豫AR53L5--</v>
+      </c>
+      <c r="E129" t="str">
+        <v>动力没有刚开始强，是不是该保养啥了？</v>
+      </c>
+      <c r="F129" t="str">
+        <v>2017-02-13 11:43</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>奇峻</v>
+      </c>
+      <c r="B130" t="str">
+        <v>50000</v>
+      </c>
+      <c r="C130" t="str">
+        <v>13633821067</v>
+      </c>
+      <c r="D130" t="str">
+        <v>豫A</v>
+      </c>
+      <c r="E130" t="str">
+        <v>右后车门钣金喷漆</v>
+      </c>
+      <c r="F130" t="str">
+        <v>2017-02-13 11:15</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>大众golf2015款</v>
+      </c>
+      <c r="B131" t="str">
+        <v>20000</v>
+      </c>
+      <c r="C131" t="str">
+        <v>13526822263</v>
+      </c>
+      <c r="D131" t="str">
+        <v>豫AF02B6</v>
+      </c>
+      <c r="E131" t="str">
+        <v>前面板左右两侧有刮蹭，维修多少钱</v>
+      </c>
+      <c r="F131" t="str">
+        <v>2017-02-13 07:40</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>cc</v>
+      </c>
+      <c r="B132" t="str">
+        <v>27000</v>
+      </c>
+      <c r="C132" t="str">
+        <v>18538271163</v>
+      </c>
+      <c r="D132" t="str">
+        <v>a001bc</v>
+      </c>
+      <c r="F132" t="str">
+        <v>2017-02-12 11:52</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>2015款大众朗行</v>
+      </c>
+      <c r="B133" t="str">
+        <v>14800</v>
+      </c>
+      <c r="C133" t="str">
+        <v>15537128081</v>
+      </c>
+      <c r="D133" t="str">
+        <v>豫A0U80B</v>
+      </c>
+      <c r="E133" t="str">
+        <v>车门被划了深深的一道，想补漆</v>
+      </c>
+      <c r="F133" t="str">
+        <v>2017-02-12 08:04</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>全新爱丽舍</v>
+      </c>
+      <c r="B134" t="str">
+        <v>23500</v>
+      </c>
+      <c r="C134" t="str">
+        <v>18839708655</v>
+      </c>
+      <c r="D134" t="str">
+        <v>EA8G93</v>
+      </c>
+      <c r="E134" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F134" t="str">
+        <v>2017-02-11 15:52</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>长安之星二代</v>
+      </c>
+      <c r="B135" t="str">
+        <v>5.2万公里</v>
+      </c>
+      <c r="C135" t="str">
+        <v>13592675209</v>
+      </c>
+      <c r="D135" t="str">
+        <v>豫AZ683M</v>
+      </c>
+      <c r="E135" t="str">
+        <v>机油三滤，中门打不开了，左前刹车有异响，方向盘有点偏。</v>
+      </c>
+      <c r="F135" t="str">
+        <v>2017-02-10 01:07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>蓝鸟</v>
+      </c>
+      <c r="B136" t="str">
+        <v>12000</v>
+      </c>
+      <c r="C136" t="str">
+        <v>15638588003</v>
+      </c>
+      <c r="D136" t="str">
+        <v>豫A1T12E</v>
+      </c>
+      <c r="E136" t="str">
+        <v>车大灯太暗，想换个亮一点的大灯，需要多少钱。</v>
+      </c>
+      <c r="F136" t="str">
+        <v>2017-02-09 20:16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>福特福睿斯</v>
+      </c>
+      <c r="B137" t="str">
+        <v>6500</v>
+      </c>
+      <c r="C137" t="str">
+        <v>18203660448</v>
+      </c>
+      <c r="D137" t="str">
+        <v>豫A80D9Y</v>
+      </c>
+      <c r="E137" t="str">
+        <v>钣金加喷漆</v>
+      </c>
+      <c r="F137" t="str">
+        <v>2017-02-09 13:32</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>现代新胜达</v>
+      </c>
+      <c r="B138" t="str">
+        <v>31000公里</v>
+      </c>
+      <c r="C138" t="str">
+        <v>13937190828</v>
+      </c>
+      <c r="D138" t="str">
+        <v>豫A1PS72</v>
+      </c>
+      <c r="E138" t="str">
+        <v>汽车维修</v>
+      </c>
+      <c r="F138" t="str">
+        <v>2017-02-09 12:31</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>现代新胜达</v>
+      </c>
+      <c r="B139" t="str">
+        <v>31000</v>
+      </c>
+      <c r="C139" t="str">
+        <v>13937190828</v>
+      </c>
+      <c r="D139" t="str">
+        <v>豫A1PS72</v>
+      </c>
+      <c r="E139" t="str">
+        <v>扳金维修</v>
+      </c>
+      <c r="F139" t="str">
+        <v>2017-02-09 05:32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>小车</v>
+      </c>
+      <c r="B140" t="str">
+        <v>30000公里</v>
+      </c>
+      <c r="C140" t="str">
+        <v>15037127315</v>
+      </c>
+      <c r="D140" t="str">
+        <v>豫AZ813Z</v>
+      </c>
+      <c r="E140" t="str">
+        <v>左右转向灯时亮时不亮</v>
+      </c>
+      <c r="F140" t="str">
+        <v>2017-02-08 23:04</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>13款大众帕萨特2.0T</v>
+      </c>
+      <c r="B141" t="str">
+        <v>100000</v>
+      </c>
+      <c r="C141" t="str">
+        <v>15378738673</v>
+      </c>
+      <c r="D141" t="str">
+        <v>浙A5YN86</v>
+      </c>
+      <c r="E141" t="str">
+        <v>清洗油气路</v>
+      </c>
+      <c r="F141" t="str">
+        <v>2017-02-08 14:25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>朗逸</v>
+      </c>
+      <c r="B142" t="str">
+        <v>91000</v>
+      </c>
+      <c r="C142" t="str">
+        <v>13803812561</v>
+      </c>
+      <c r="D142" t="str">
+        <v>豫An225n</v>
+      </c>
+      <c r="E142" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F142" t="str">
+        <v>2017-02-08 11:09</v>
       </c>
     </row>
   </sheetData>

--- a/private/sijiache/fixcarinfo.xlsx
+++ b/private/sijiache/fixcarinfo.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F260"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -396,2788 +396,5136 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>吉利博瑞</v>
+        <v>现代ix35</v>
       </c>
       <c r="B2" t="str">
-        <v>3000</v>
+        <v>91000</v>
       </c>
       <c r="C2" t="str">
-        <v>13837153545</v>
+        <v>15936296049</v>
       </c>
       <c r="D2" t="str">
-        <v>豫A00RT2</v>
+        <v>豫a8mu22</v>
       </c>
       <c r="E2" t="str">
-        <v>保险杠上的塑料覆盖件破洞</v>
+        <v>引擎盖被砸凹陷了掉漆了，维修要多少钱，多长时间</v>
       </c>
       <c r="F2" t="str">
-        <v>2017-03-14 14:39</v>
+        <v>2017-04-17 16:41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>JEEP大切诺基</v>
+        <v>北京现代瑞纳</v>
       </c>
       <c r="B3" t="str">
-        <v>162000</v>
+        <v>35328</v>
       </c>
       <c r="C3" t="str">
-        <v>18937654889</v>
+        <v>15188359292</v>
       </c>
       <c r="D3" t="str">
-        <v>豫JQ3009</v>
+        <v>豫AL98V0</v>
       </c>
       <c r="E3" t="str">
-        <v>转弯有格啦格啦响，高速在80时噪音很大。</v>
+        <v>白车右后门蹭掉漆，露底，两处，每一处约10公分，</v>
       </c>
       <c r="F3" t="str">
-        <v>2017-03-14 11:22</v>
+        <v>2017-04-17 16:15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2013款途胜</v>
+        <v>别克</v>
       </c>
       <c r="B4" t="str">
-        <v>35000</v>
+        <v>19487</v>
       </c>
       <c r="C4" t="str">
-        <v>15638809921</v>
+        <v>15838192723</v>
       </c>
       <c r="D4" t="str">
-        <v>豫AF5V10</v>
+        <v>豫A8c01y</v>
       </c>
       <c r="E4" t="str">
-        <v>发动机异响</v>
+        <v>清洗空调，有个坑</v>
       </c>
       <c r="F4" t="str">
-        <v>2017-03-13 19:39</v>
+        <v>2017-04-17 13:39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>本田奥德赛</v>
+        <v>宝骏730</v>
       </c>
       <c r="B5" t="str">
-        <v>100000</v>
+        <v>14000</v>
       </c>
       <c r="C5" t="str">
-        <v>13027611903</v>
+        <v>15517151100</v>
       </c>
       <c r="D5" t="str">
-        <v>豫A95VZ1</v>
+        <v>豫QAR192</v>
       </c>
       <c r="E5" t="str">
-        <v>车辆一千五百转匀速行驶会出现顿挫的感觉，一咣一咣的，2000转的开就没有这种感觉了，才换了火花塞，</v>
+        <v>车被刮，喷漆！</v>
       </c>
       <c r="F5" t="str">
-        <v>2017-03-13 13:56</v>
+        <v>2017-04-17 13:10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>江淮瑞风</v>
+        <v>景逸1.5LV</v>
       </c>
       <c r="B6" t="str">
-        <v>94000</v>
+        <v>95194</v>
       </c>
       <c r="C6" t="str">
-        <v>15837137602</v>
+        <v>18530014785</v>
       </c>
       <c r="D6" t="str">
-        <v>豫AG77W9</v>
+        <v>豫A672PV</v>
       </c>
       <c r="E6" t="str">
-        <v>油箱有油，油表灯报警，但是跑一会以后油表指针自己慢慢往上升，怎么回事？是传感器的问题还是什么</v>
+        <v>手动，二档挂不上</v>
       </c>
       <c r="F6" t="str">
-        <v>2017-03-13 11:29</v>
+        <v>2017-04-17 12:46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>科鲁兹</v>
+        <v>起亚k3</v>
       </c>
       <c r="B7" t="str">
-        <v>47000</v>
+        <v>15000</v>
       </c>
       <c r="C7" t="str">
-        <v>15136163539</v>
+        <v>18603826292</v>
       </c>
       <c r="D7" t="str">
-        <v>豫A4YX56</v>
+        <v>予A0F81U</v>
+      </c>
+      <c r="E7" t="str">
+        <v>车辆之前有剐蹭，一直没修，想问下咱们这边怎么修。</v>
       </c>
       <c r="F7" t="str">
-        <v>2017-03-13 09:07</v>
+        <v>2017-04-17 12:35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>荣威360</v>
+        <v>雷克萨斯RX270</v>
       </c>
       <c r="B8" t="str">
-        <v>3万公里</v>
+        <v>18111</v>
       </c>
       <c r="C8" t="str">
-        <v>13140070781</v>
+        <v>15936298331</v>
       </c>
       <c r="D8" t="str">
-        <v>豫A8M85K</v>
+        <v>豫AMZ900</v>
       </c>
       <c r="E8" t="str">
-        <v>原装的扬声器音质不好，音量太小，想更换质量好点的</v>
+        <v>驾驶座和副驾驶座之间的手扶箱坏了，整个盖子掉了，想问一下维修费用。去4S店维修有没有必要？</v>
       </c>
       <c r="F8" t="str">
-        <v>2017-03-12 17:51</v>
+        <v>2017-04-17 11:41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>荣威360</v>
+        <v>五菱荣光</v>
       </c>
       <c r="B9" t="str">
-        <v>3万公里</v>
+        <v>70000</v>
       </c>
       <c r="C9" t="str">
-        <v>13140070781</v>
+        <v>13027763101</v>
       </c>
       <c r="D9" t="str">
-        <v>豫A8M85K</v>
+        <v>豫A8CB95</v>
       </c>
       <c r="E9" t="str">
-        <v>原装的扬声器音质不好，音量小，想重新更换</v>
+        <v>车辆起步有时加不上油，挂档加油后，松油门车辆一顿一顿的，刹车起段不是特别灵</v>
       </c>
       <c r="F9" t="str">
-        <v>2017-03-12 17:45</v>
+        <v>2017-04-17 09:22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>大众凌渡</v>
+        <v>日产骐达</v>
       </c>
       <c r="B10" t="str">
-        <v>4680</v>
+        <v>33200</v>
       </c>
       <c r="C10" t="str">
-        <v>17737790118</v>
+        <v>13526713033</v>
       </c>
       <c r="D10" t="str">
-        <v>豫A2AY16</v>
+        <v>豫A·0E81P</v>
       </c>
       <c r="E10" t="str">
-        <v>四轮定位</v>
+        <v>日产骐达 1.6CVT自动档变速箱 起步时加油，或者刹车后再加油时有顿挫感、油门无力给不上油，转速一下子升至2000多转，60码后加油会好一些，0-60码时，这种情况最明显</v>
       </c>
       <c r="F10" t="str">
-        <v>2017-03-12 09:54</v>
+        <v>2017-04-16 17:06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>大众凌渡</v>
+        <v>荣威350</v>
       </c>
       <c r="B11" t="str">
-        <v>4680</v>
+        <v>63642</v>
       </c>
       <c r="C11" t="str">
-        <v>17737790118</v>
+        <v>18638778712</v>
       </c>
       <c r="D11" t="str">
-        <v>豫A2AY16</v>
+        <v>豫AH717X</v>
       </c>
       <c r="E11" t="str">
-        <v>左前轮外倾角过大</v>
+        <v>老杨啊  车这几天感觉  动力不足  高速上提不起速来  有时候发动机灯还会亮  倒车有时候还会熄火  发动机感觉抖动的厉害  这做完保养没多长时间啊</v>
       </c>
       <c r="F11" t="str">
-        <v>2017-03-12 09:00</v>
+        <v>2017-04-16 16:49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>大切诺基</v>
+        <v>大众新捷达</v>
       </c>
       <c r="B12" t="str">
-        <v>162000</v>
+        <v>40000</v>
       </c>
       <c r="C12" t="str">
-        <v>18937654889</v>
+        <v>15890116257</v>
       </c>
       <c r="D12" t="str">
-        <v>豫AW3G08</v>
+        <v>豫AF79Z2</v>
       </c>
       <c r="E12" t="str">
-        <v>转弯时前半轴咯啦格啦响，车速到80的时候噪音很大</v>
+        <v>后保险杠喷漆</v>
       </c>
       <c r="F12" t="str">
-        <v>2017-03-11 14:57</v>
+        <v>2017-04-16 15:05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>丰田花冠</v>
+      </c>
+      <c r="B13" t="str">
+        <v>34000</v>
+      </c>
+      <c r="C13" t="str">
+        <v>18236929197</v>
+      </c>
+      <c r="D13" t="str">
+        <v>豫AT805A</v>
+      </c>
+      <c r="E13" t="str">
+        <v>车漏氟，而且检查不出来哪里漏，充过四次氟了</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2017-04-16 11:35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>指南者</v>
+      </c>
+      <c r="B14" t="str">
+        <v>110000</v>
+      </c>
+      <c r="C14" t="str">
+        <v>13903717623</v>
+      </c>
+      <c r="D14" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E14" t="str">
+        <v>空调</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2017-04-15 13:52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>奥迪A4L 2017款</v>
+      </c>
+      <c r="B15" t="str">
+        <v>700</v>
+      </c>
+      <c r="C15" t="str">
+        <v>133333811308</v>
+      </c>
+      <c r="D15" t="str">
+        <v>豫A 0K602</v>
+      </c>
+      <c r="E15" t="str">
+        <v>能否帮着安装奥迪二代胎压监测、挡泥板</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2017-04-15 10:52</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>悦达起亚K3</v>
+      </c>
+      <c r="B16" t="str">
+        <v>50000</v>
+      </c>
+      <c r="C16" t="str">
+        <v>18637133309</v>
+      </c>
+      <c r="D16" t="str">
+        <v>豫A2RR08</v>
+      </c>
+      <c r="E16" t="str">
+        <v>每一次踩刹车都会滋的响一声，很可怕</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2017-04-15 09:44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>别克新君越零九款</v>
+      </c>
+      <c r="B17" t="str">
+        <v>11万</v>
+      </c>
+      <c r="C17" t="str">
+        <v>13937125009</v>
+      </c>
+      <c r="D17" t="str">
+        <v>豫a88L88</v>
+      </c>
+      <c r="E17" t="str">
+        <v>更换天窗内层</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2017-04-14 16:58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>丰田</v>
+      </c>
+      <c r="B18" t="str">
+        <v>10</v>
+      </c>
+      <c r="C18" t="str">
+        <v>18638274949</v>
+      </c>
+      <c r="D18" t="str">
+        <v>豫a w811v</v>
+      </c>
+      <c r="E18" t="str">
+        <v>漆面修复</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2017-04-14 15:33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>11款朗逸1.4自动档</v>
+      </c>
+      <c r="B19" t="str">
+        <v>163000</v>
+      </c>
+      <c r="C19" t="str">
+        <v>13783629050</v>
+      </c>
+      <c r="D19" t="str">
+        <v>豫AM059W</v>
+      </c>
+      <c r="E19" t="str">
+        <v>11款朗逸1.4T自动变速箱，8万公里找回更换变速箱控制单元，3月10日160500公里控制单元漏油，17日更换控制单元。现163000公里车辆怠速抖动严重，4s店检测后说离合器的问题需更换，费用要5500，这个问题能免费更换吗？咱车间更换离合器需要多少钱？</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2017-04-14 11:42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>标致207</v>
+      </c>
+      <c r="B20" t="str">
+        <v>3万</v>
+      </c>
+      <c r="C20" t="str">
+        <v>13523034251</v>
+      </c>
+      <c r="D20" t="str">
+        <v>豫A993R9</v>
+      </c>
+      <c r="E20" t="str">
+        <v>你好，我的车后保险杠坏了，能换个新的吗？白色的。</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2017-04-14 11:36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>suv</v>
+      </c>
+      <c r="B21" t="str">
+        <v>74752</v>
+      </c>
+      <c r="C21" t="str">
+        <v>13992006664</v>
+      </c>
+      <c r="D21" t="str">
+        <v>陕AK033R</v>
+      </c>
+      <c r="E21" t="str">
+        <v>车速度上到110速度以后车后面就晃动，感觉像摇摆</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2017-04-14 08:28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>本田思铂睿</v>
+      </c>
+      <c r="B22" t="str">
+        <v>50000</v>
+      </c>
+      <c r="C22" t="str">
+        <v>13838177252</v>
+      </c>
+      <c r="D22" t="str">
+        <v>豫A202RS</v>
+      </c>
+      <c r="E22" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2017-04-14 07:12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2014款标志308</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8000</v>
+      </c>
+      <c r="C23" t="str">
+        <v>13803995803</v>
+      </c>
+      <c r="D23" t="str">
+        <v>豫A3T08A</v>
+      </c>
+      <c r="E23" t="str">
+        <v>一个车门中度剐蹭，还有车门下面一点需要钣金多少钱</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2017-04-13 19:00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>悦动</v>
+      </c>
+      <c r="B24" t="str">
+        <v>70000</v>
+      </c>
+      <c r="C24" t="str">
+        <v>13783463576</v>
+      </c>
+      <c r="D24" t="str">
+        <v>7768T</v>
+      </c>
+      <c r="E24" t="str">
+        <v>换离合片多少钱</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2017-04-13 18:48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>骐达</v>
+      </c>
+      <c r="B25" t="str">
+        <v>110000</v>
+      </c>
+      <c r="C25" t="str">
+        <v>13598035526</v>
+      </c>
+      <c r="D25" t="str">
+        <v>豫A592VW</v>
+      </c>
+      <c r="E25" t="str">
+        <v>空调制冷效果不好</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2017-04-13 16:26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>长城C30</v>
+      </c>
+      <c r="B26" t="str">
+        <v>82000</v>
+      </c>
+      <c r="C26" t="str">
+        <v>13676909255</v>
+      </c>
+      <c r="D26" t="str">
+        <v>豫GCW719</v>
+      </c>
+      <c r="E26" t="str">
+        <v>冷车打火一下子就着，但是热车不容易打着，有时怠速超过2500转。</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2017-04-13 15:10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>骐达</v>
+      </c>
+      <c r="B27" t="str">
+        <v>110000</v>
+      </c>
+      <c r="C27" t="str">
+        <v>13598035526</v>
+      </c>
+      <c r="D27" t="str">
+        <v>豫A592VW</v>
+      </c>
+      <c r="E27" t="str">
+        <v>空调不制冷</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2017-04-13 14:15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>丰田皇冠</v>
+      </c>
+      <c r="B28" t="str">
+        <v>33152</v>
+      </c>
+      <c r="C28" t="str">
+        <v>18539993980</v>
+      </c>
+      <c r="D28" t="str">
+        <v>豫A88771</v>
+      </c>
+      <c r="E28" t="str">
+        <v>左前门剐蹭</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2017-04-13 13:37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>福克斯</v>
+      </c>
+      <c r="B29" t="str">
+        <v>42000</v>
+      </c>
+      <c r="C29" t="str">
+        <v>15838300927</v>
+      </c>
+      <c r="D29" t="str">
+        <v>豫AT998m</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2017-04-13 12:44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>大众朗行1.6</v>
+      </c>
+      <c r="B30" t="str">
+        <v>15537128081</v>
+      </c>
+      <c r="C30" t="str">
+        <v>15537128081</v>
+      </c>
+      <c r="D30" t="str">
+        <v>豫A0U80B</v>
+      </c>
+      <c r="E30" t="str">
+        <v>感觉发动机声音大，可以做发动机隔音不，多少钱</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2017-04-12 22:25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>标致207</v>
+      </c>
+      <c r="B31" t="str">
+        <v>5万</v>
+      </c>
+      <c r="C31" t="str">
+        <v>18638782881</v>
+      </c>
+      <c r="D31" t="str">
+        <v>豫A7UN83</v>
+      </c>
+      <c r="E31" t="str">
+        <v>车子右叶子板北頂脱落了，好像卡子掉了</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2017-04-12 20:22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>雪铁龙C5</v>
+      </c>
+      <c r="B32" t="str">
+        <v>52299</v>
+      </c>
+      <c r="C32" t="str">
+        <v>17603867377</v>
+      </c>
+      <c r="D32" t="str">
+        <v>豫A5467E</v>
+      </c>
+      <c r="E32" t="str">
+        <v>发动机异响。</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2017-04-12 16:55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>小型轿车，海马欢动</v>
+      </c>
+      <c r="B33" t="str">
+        <v>24547</v>
+      </c>
+      <c r="C33" t="str">
+        <v>13525568560</v>
+      </c>
+      <c r="D33" t="str">
+        <v>豫A3N829</v>
+      </c>
+      <c r="E33" t="str">
+        <v>雨刷器问题，想更换或维修！</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2017-04-12 15:53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>现代名图</v>
+      </c>
+      <c r="B34" t="str">
+        <v>30000</v>
+      </c>
+      <c r="C34" t="str">
+        <v>13703992726</v>
+      </c>
+      <c r="D34" t="str">
+        <v>豫AC82E6</v>
+      </c>
+      <c r="E34" t="str">
+        <v>后门和后保险杠钣金喷漆</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2017-04-12 12:39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>昂科威20T</v>
+      </c>
+      <c r="B35" t="str">
+        <v>28000</v>
+      </c>
+      <c r="C35" t="str">
+        <v>15538309611</v>
+      </c>
+      <c r="D35" t="str">
+        <v>豫A9V85T</v>
+      </c>
+      <c r="E35" t="str">
+        <v>前挡玻璃修复</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2017-04-12 11:41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>世嘉</v>
+      </c>
+      <c r="B36" t="str">
+        <v>86521</v>
+      </c>
+      <c r="C36" t="str">
+        <v>13674912225</v>
+      </c>
+      <c r="D36" t="str">
+        <v>豫A827VP</v>
+      </c>
+      <c r="E36" t="str">
+        <v>左前过坏路克登响声！早上起来第一吧会有易响声！</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2017-04-12 11:16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>世嘉</v>
+      </c>
+      <c r="B37" t="str">
+        <v>86521</v>
+      </c>
+      <c r="C37" t="str">
+        <v>13674912225</v>
+      </c>
+      <c r="D37" t="str">
+        <v>豫A827VP</v>
+      </c>
+      <c r="E37" t="str">
+        <v>左前过坏路克登响声！早上起来第一吧会有易响声！</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2017-04-12 11:16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>k5</v>
+      </c>
+      <c r="B38" t="str">
+        <v>10300</v>
+      </c>
+      <c r="C38" t="str">
+        <v>18608393100</v>
+      </c>
+      <c r="D38" t="str">
+        <v>豫a11qn3</v>
+      </c>
+      <c r="E38" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2017-04-12 08:59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>k5</v>
+      </c>
+      <c r="B39" t="str">
+        <v>10300</v>
+      </c>
+      <c r="C39" t="str">
+        <v>18608393100</v>
+      </c>
+      <c r="D39" t="str">
+        <v>豫a11qn3</v>
+      </c>
+      <c r="E39" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2017-04-12 08:59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>09版手自一体斯柯达明锐</v>
+      </c>
+      <c r="B40" t="str">
+        <v>120000</v>
+      </c>
+      <c r="C40" t="str">
+        <v>15737197296</v>
+      </c>
+      <c r="D40" t="str">
+        <v>豫A5G98C</v>
+      </c>
+      <c r="E40" t="str">
+        <v>刚起步转动方向盘时咯吱咯吱的响，是怎么会事？特别是转方向的时候，轻微的动方向盘不会响？</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2017-04-11 14:54</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>雨燕</v>
+      </c>
+      <c r="B41" t="str">
+        <v>21880</v>
+      </c>
+      <c r="C41" t="str">
+        <v>13073723735</v>
+      </c>
+      <c r="D41" t="str">
+        <v>豫AG21B2</v>
+      </c>
+      <c r="E41" t="str">
+        <v>车屁股左边凹陷</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2017-04-11 11:44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>长安致尚XT</v>
+      </c>
+      <c r="B42" t="str">
+        <v>49736</v>
+      </c>
+      <c r="C42" t="str">
+        <v>13949003612</v>
+      </c>
+      <c r="D42" t="str">
+        <v>豫A66UC3</v>
+      </c>
+      <c r="E42" t="str">
+        <v>车被剐蹭了，需要喷漆，保养</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2017-04-11 09:33</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>传祺GA3</v>
+      </c>
+      <c r="B43" t="str">
+        <v>9万</v>
+      </c>
+      <c r="C43" t="str">
+        <v>15093384111</v>
+      </c>
+      <c r="D43" t="str">
+        <v>豫AU91Z1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>发动机皮带和惰轮</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2017-04-11 08:13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>编号欧诺</v>
+      </c>
+      <c r="B44" t="str">
+        <v>11万</v>
+      </c>
+      <c r="C44" t="str">
+        <v>13203848069</v>
+      </c>
+      <c r="D44" t="str">
+        <v>豫A 760UL</v>
+      </c>
+      <c r="E44" t="str">
+        <v>挂档不好挂，挂不上</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2017-04-10 16:24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>本田</v>
+      </c>
+      <c r="B45" t="str">
+        <v>65000</v>
+      </c>
+      <c r="C45" t="str">
+        <v>15978411862</v>
+      </c>
+      <c r="D45" t="str">
+        <v>豫A338ry</v>
+      </c>
+      <c r="E45" t="str">
+        <v>发动机抖动</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2017-04-09 16:03</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>现代悦动</v>
+      </c>
+      <c r="B46" t="str">
+        <v>10万</v>
+      </c>
+      <c r="C46" t="str">
+        <v>13837243936</v>
+      </c>
+      <c r="D46" t="str">
+        <v>豫EF9296</v>
+      </c>
+      <c r="E46" t="str">
+        <v>怠速不稳，起步不稳，容易灭车，清洗一次坚持不了多久，已经节气门之前已经更换过，</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2017-04-09 11:49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>致胜2.0T至尊版</v>
+      </c>
+      <c r="B47" t="str">
+        <v>7.9万</v>
+      </c>
+      <c r="C47" t="str">
+        <v>13592490425</v>
+      </c>
+      <c r="D47" t="str">
+        <v>豫AT633Q</v>
+      </c>
+      <c r="E47" t="str">
+        <v>变速箱漏油，需要更换变速箱油封，加变速箱油。</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2017-04-09 11:41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>丰田皇冠</v>
+      </c>
+      <c r="B48" t="str">
+        <v>32898</v>
+      </c>
+      <c r="C48" t="str">
+        <v>18539993980</v>
+      </c>
+      <c r="D48" t="str">
+        <v>豫a88771</v>
+      </c>
+      <c r="E48" t="str">
+        <v>左前门剐蹭</v>
+      </c>
+      <c r="F48" t="str">
+        <v>2017-04-07 18:55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>3箱世嘉</v>
+      </c>
+      <c r="B49" t="str">
+        <v>38000</v>
+      </c>
+      <c r="C49" t="str">
+        <v>13633713783</v>
+      </c>
+      <c r="D49" t="str">
+        <v>豫</v>
+      </c>
+      <c r="E49" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F49" t="str">
+        <v>2017-04-07 15:10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>马自达睿翼</v>
+      </c>
+      <c r="B50" t="str">
+        <v>117000</v>
+      </c>
+      <c r="C50" t="str">
+        <v>18625586509</v>
+      </c>
+      <c r="D50" t="str">
+        <v>豫A2637R</v>
+      </c>
+      <c r="E50" t="str">
+        <v>方向往右偏！</v>
+      </c>
+      <c r="F50" t="str">
+        <v>2017-04-07 11:11</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>马自达6</v>
+      </c>
+      <c r="B51" t="str">
+        <v>117000</v>
+      </c>
+      <c r="C51" t="str">
+        <v>18137815886</v>
+      </c>
+      <c r="D51" t="str">
+        <v>565W2</v>
+      </c>
+      <c r="E51" t="str">
+        <v>保险杠撞坏了，换保险杠，2009款蓝色</v>
+      </c>
+      <c r="F51" t="str">
+        <v>2017-04-06 08:40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>3008</v>
+      </c>
+      <c r="B52" t="str">
+        <v>39000</v>
+      </c>
+      <c r="C52" t="str">
+        <v>13721433023</v>
+      </c>
+      <c r="D52" t="str">
+        <v>豫AS2X76</v>
+      </c>
+      <c r="E52" t="str">
+        <v>节气门故障，有的4S店说改清洗了，有的4S点直接换，说这个车的节气门不能清洗，只能换，是换还是清</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2017-04-05 11:15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>17款奥迪A4L</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8700</v>
+      </c>
+      <c r="C53" t="str">
+        <v>13014580037</v>
+      </c>
+      <c r="D53" t="str">
+        <v>豫QRC233</v>
+      </c>
+      <c r="E53" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F53" t="str">
+        <v>2017-04-05 09:07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>奔腾B50</v>
+      </c>
+      <c r="B54" t="str">
+        <v>90000</v>
+      </c>
+      <c r="C54" t="str">
+        <v>豫18605936321</v>
+      </c>
+      <c r="D54" t="str">
+        <v>豫AF725P</v>
+      </c>
+      <c r="E54" t="str">
+        <v>更换正式链条大概需要对少钱？</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2017-04-04 07:41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>奔驰C260</v>
+      </c>
+      <c r="B55" t="str">
+        <v>70000</v>
+      </c>
+      <c r="C55" t="str">
+        <v>15903672336</v>
+      </c>
+      <c r="D55" t="str">
+        <v>U50H8</v>
+      </c>
+      <c r="E55" t="str">
+        <v>出事故，需要拖车</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2017-04-04 02:26</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>福特蒙迪欧</v>
+      </c>
+      <c r="B56" t="str">
+        <v>17000</v>
+      </c>
+      <c r="C56" t="str">
+        <v>13783488104</v>
+      </c>
+      <c r="D56" t="str">
+        <v>豫A0H25Y</v>
+      </c>
+      <c r="E56" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2017-04-03 16:07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>雪佛兰乐驰</v>
+      </c>
+      <c r="B57" t="str">
+        <v>5万</v>
+      </c>
+      <c r="C57" t="str">
+        <v>15838319204</v>
+      </c>
+      <c r="D57" t="str">
+        <v>豫AL224L</v>
+      </c>
+      <c r="E57" t="str">
+        <v>在西边靠谱的修车的地方</v>
+      </c>
+      <c r="F57" t="str">
+        <v>2017-04-03 09:53</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>丰田逸致</v>
+      </c>
+      <c r="B58" t="str">
+        <v>3.6万</v>
+      </c>
+      <c r="C58" t="str">
+        <v>13903819725</v>
+      </c>
+      <c r="D58" t="str">
+        <v>豫AB50C1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>喷漆，还有你们店的位置。我在东区。</v>
+      </c>
+      <c r="F58" t="str">
+        <v>2017-04-03 09:39</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>飞度</v>
+      </c>
+      <c r="B59" t="str">
+        <v>15000</v>
+      </c>
+      <c r="C59" t="str">
+        <v>13938584690</v>
+      </c>
+      <c r="D59" t="str">
+        <v>豫A6M02L</v>
+      </c>
+      <c r="E59" t="str">
+        <v>前杠被蹭了想喷漆</v>
+      </c>
+      <c r="F59" t="str">
+        <v>2017-04-02 23:29</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>12款新福克斯双离合手自一体</v>
+      </c>
+      <c r="B60" t="str">
+        <v>18000</v>
+      </c>
+      <c r="C60" t="str">
+        <v>13083670800</v>
+      </c>
+      <c r="D60" t="str">
+        <v>豫UD8709</v>
+      </c>
+      <c r="E60" t="str">
+        <v>行驶中途，暂时停车后重新起步，一档换二档时候，车身有抖动。凉车起步的时候没有这种现象，老杨，是不是节气门该清洗了？还有一个问题，行驶途中车，减档的时候有时候会有轻微的哗啦啦声音，新车的时候就有，不知道从哪发出，是变速箱正常声音么？</v>
+      </c>
+      <c r="F60" t="str">
+        <v>2017-04-02 16:50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>欧宝</v>
+      </c>
+      <c r="B61" t="str">
+        <v>56000</v>
+      </c>
+      <c r="C61" t="str">
+        <v>15303820827</v>
+      </c>
+      <c r="D61" t="str">
+        <v>豫AH001T</v>
+      </c>
+      <c r="E61" t="str">
+        <v>跑高速公里数110-120时车座下面抖的厉害，到130时又平稳一些。想知道是咋回事？之前方向盘也颤抖，换了机油，变速箱油后不颤了等红灯时会有轻微的颤动</v>
+      </c>
+      <c r="F61" t="str">
+        <v>2017-04-01 20:48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>东风本田思铂睿</v>
+      </c>
+      <c r="B62" t="str">
+        <v>49300</v>
+      </c>
+      <c r="C62" t="str">
+        <v>13838177252</v>
+      </c>
+      <c r="D62" t="str">
+        <v>豫A202RS</v>
+      </c>
+      <c r="E62" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F62" t="str">
+        <v>2017-04-01 17:09</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>14款欧蓝德</v>
+      </c>
+      <c r="B63" t="str">
+        <v>33000</v>
+      </c>
+      <c r="C63" t="str">
+        <v>15839176837</v>
+      </c>
+      <c r="D63" t="str">
+        <v>豫AA89Q8</v>
+      </c>
+      <c r="E63" t="str">
+        <v>我的车子15000的时候打不着火，4s店说是该清洗节气门了，我30000公里的时候清的节气门，现在车子不到2年，33000公里，前两天我有三四天没有开车，然后车子就亏电了，打不着火，这种情况正常吗？</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2017-04-01 13:33</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2012款新福克斯</v>
+      </c>
+      <c r="B64" t="str">
+        <v>63000</v>
+      </c>
+      <c r="C64" t="str">
+        <v>18039357927</v>
+      </c>
+      <c r="D64" t="str">
+        <v>豫jwy927</v>
+      </c>
+      <c r="E64" t="str">
+        <v>变速箱一直渗油伴随抖动，去4s店换过抬过三次变速箱了。两个离合器和三个油封，都没有解决。应该怎么办。</v>
+      </c>
+      <c r="F64" t="str">
+        <v>2017-04-01 11:58</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>雪铁龙</v>
+      </c>
+      <c r="B65" t="str">
+        <v>4.6万</v>
+      </c>
+      <c r="C65" t="str">
+        <v>18697313555</v>
+      </c>
+      <c r="D65" t="str">
+        <v>豫A089VP</v>
+      </c>
+      <c r="E65" t="str">
+        <v>发动机故障灯亮</v>
+      </c>
+      <c r="F65" t="str">
+        <v>2017-04-01 11:15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>飞度</v>
+      </c>
+      <c r="B66" t="str">
+        <v>51057</v>
+      </c>
+      <c r="C66" t="str">
+        <v>18137796662</v>
+      </c>
+      <c r="D66" t="str">
+        <v>豫A67RP2</v>
+      </c>
+      <c r="E66" t="str">
+        <v>更换刹车片</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2017-04-01 11:08</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>宝马320</v>
+      </c>
+      <c r="B67" t="str">
+        <v>29180</v>
+      </c>
+      <c r="C67" t="str">
+        <v>13253379799</v>
+      </c>
+      <c r="D67" t="str">
+        <v>豫AR5Y77</v>
+      </c>
+      <c r="E67" t="str">
+        <v>漏油，异响</v>
+      </c>
+      <c r="F67" t="str">
+        <v>2017-04-01 10:08</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>高7</v>
+      </c>
+      <c r="B68" t="str">
+        <v>12000</v>
+      </c>
+      <c r="C68" t="str">
+        <v>13503831001</v>
+      </c>
+      <c r="D68" t="str">
+        <v>豫AG3D76</v>
+      </c>
+      <c r="E68" t="str">
+        <v>前保险杠挂花了，能喷漆吗？</v>
+      </c>
+      <c r="F68" t="str">
+        <v>2017-03-31 16:32</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>别克英朗</v>
+      </c>
+      <c r="B69" t="str">
+        <v>33300</v>
+      </c>
+      <c r="C69" t="str">
+        <v>13673379607</v>
+      </c>
+      <c r="D69" t="str">
+        <v>豫A4DD12</v>
+      </c>
+      <c r="E69" t="str">
+        <v>车熄火以后引擎盖下面有哒哒哒金属撞击声</v>
+      </c>
+      <c r="F69" t="str">
+        <v>2017-03-31 11:51</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>速腾</v>
+      </c>
+      <c r="B70" t="str">
+        <v>120000</v>
+      </c>
+      <c r="C70" t="str">
+        <v>18969166224</v>
+      </c>
+      <c r="D70" t="str">
+        <v>豫HYC580</v>
+      </c>
+      <c r="E70" t="str">
+        <v>在走稍不平坦的路上时，左前轮有"哒哒哒"的响声是怎么回事？</v>
+      </c>
+      <c r="F70" t="str">
+        <v>2017-03-31 11:46</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>别克英朗</v>
+      </c>
+      <c r="B71" t="str">
+        <v>41000</v>
+      </c>
+      <c r="C71" t="str">
+        <v>15617847891</v>
+      </c>
+      <c r="D71" t="str">
+        <v>豫A3X38D</v>
+      </c>
+      <c r="E71" t="str">
+        <v>新车手动挡，去年七月份买的，离合器老是坏，换了三次了，又坏了，今天去4S店说换次数太多了，需要等厂家回复才能修，我很头疼，寻求帮助，谢谢杨毅</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2017-03-31 11:26</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2013新宝来1.6自舒</v>
+      </c>
+      <c r="B72" t="str">
+        <v>69100</v>
+      </c>
+      <c r="C72" t="str">
+        <v>18703880307</v>
+      </c>
+      <c r="D72" t="str">
+        <v>豫A2FA59</v>
+      </c>
+      <c r="E72" t="str">
+        <v>早上凉车过减速带前减震那咯吱咯吱响</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2017-03-30 16:42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>大众桑塔纳志俊</v>
+      </c>
+      <c r="B73" t="str">
+        <v>65000</v>
+      </c>
+      <c r="C73" t="str">
+        <v>18595677039</v>
+      </c>
+      <c r="D73" t="str">
+        <v>豫A93538</v>
+      </c>
+      <c r="E73" t="str">
+        <v>需要钣金喷漆，速联系！</v>
+      </c>
+      <c r="F73" t="str">
+        <v>2017-03-30 15:27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>宝马 mini</v>
+      </c>
+      <c r="B74" t="str">
+        <v>5w</v>
+      </c>
+      <c r="C74" t="str">
+        <v>18638589516</v>
+      </c>
+      <c r="D74" t="str">
+        <v>豫A9NQ77</v>
+      </c>
+      <c r="E74" t="str">
+        <v>后车窗玻璃被砸了需要更换急！急！急！</v>
+      </c>
+      <c r="F74" t="str">
+        <v>2017-03-29 08:26</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>宝马 mini</v>
+      </c>
+      <c r="C75" t="str">
+        <v>18638589516</v>
+      </c>
+      <c r="D75" t="str">
+        <v>豫A9NQ77</v>
+      </c>
+      <c r="F75" t="str">
+        <v>2017-03-29 08:00</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>起亚K5</v>
+      </c>
+      <c r="B76" t="str">
+        <v>26000</v>
+      </c>
+      <c r="C76" t="str">
+        <v>18838171772</v>
+      </c>
+      <c r="D76" t="str">
+        <v>豫A7VU10</v>
+      </c>
+      <c r="E76" t="str">
+        <v>发动机声音很大</v>
+      </c>
+      <c r="F76" t="str">
+        <v>2017-03-28 22:23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>宝骏730</v>
+      </c>
+      <c r="B77" t="str">
+        <v>21174</v>
+      </c>
+      <c r="C77" t="str">
+        <v>18639335161</v>
+      </c>
+      <c r="D77" t="str">
+        <v>豫J6Q512</v>
+      </c>
+      <c r="E77" t="str">
+        <v>你好我问下，我的车平时会出现开车过程中抖的现象，就像是没油了的那种感觉，一般出现在二档三档稍加油门的时候，什么原因油的问题吗？平时也不是特别频繁，怠速没事。</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2017-03-28 11:59</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>新福克斯</v>
+      </c>
+      <c r="B78" t="str">
+        <v>20200</v>
+      </c>
+      <c r="C78" t="str">
+        <v>15838214631</v>
+      </c>
+      <c r="D78" t="str">
+        <v>豫A99DW3</v>
+      </c>
+      <c r="E78" t="str">
+        <v>喷漆</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2017-03-28 11:50</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>大众途安</v>
+      </c>
+      <c r="B79" t="str">
+        <v>120000</v>
+      </c>
+      <c r="C79" t="str">
+        <v>18626224549</v>
+      </c>
+      <c r="D79" t="str">
+        <v>豫A688AX</v>
+      </c>
+      <c r="E79" t="str">
+        <v>喷漆和小钣金</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2017-03-27 18:39</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>帕萨特</v>
+      </c>
+      <c r="B80" t="str">
+        <v>36323</v>
+      </c>
+      <c r="C80" t="str">
+        <v>18538065588</v>
+      </c>
+      <c r="D80" t="str">
+        <v>豫A08XJ5</v>
+      </c>
+      <c r="E80" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F80" t="str">
+        <v>2017-03-27 11:39</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>起亚福瑞迪</v>
+      </c>
+      <c r="B81" t="str">
+        <v>12万</v>
+      </c>
+      <c r="C81" t="str">
+        <v>13213022551</v>
+      </c>
+      <c r="D81" t="str">
+        <v>99</v>
+      </c>
+      <c r="E81" t="str">
+        <v>左边的音响有是不响</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2017-03-27 11:28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>一汽大众CC</v>
+      </c>
+      <c r="B82" t="str">
+        <v>9100</v>
+      </c>
+      <c r="C82" t="str">
+        <v>15515520663</v>
+      </c>
+      <c r="D82" t="str">
+        <v>豫a8zx10</v>
+      </c>
+      <c r="E82" t="str">
+        <v>发动机怠速偶尔轻微抖动</v>
+      </c>
+      <c r="F82" t="str">
+        <v>2017-03-27 09:31</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>奇瑞瑞虎5 家悦手动2014</v>
+      </c>
+      <c r="B83" t="str">
+        <v>94000</v>
+      </c>
+      <c r="C83" t="str">
+        <v>18739949021</v>
+      </c>
+      <c r="D83" t="str">
+        <v>豫A8VK70</v>
+      </c>
+      <c r="E83" t="str">
+        <v>换轮胎多少钱，还有四轮定位。</v>
+      </c>
+      <c r="F83" t="str">
+        <v>2017-03-26 20:29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>高尔夫R</v>
+      </c>
+      <c r="B84" t="str">
+        <v>38303</v>
+      </c>
+      <c r="C84" t="str">
+        <v>15981877360</v>
+      </c>
+      <c r="D84" t="str">
+        <v>豫A1MB97</v>
+      </c>
+      <c r="E84" t="str">
+        <v>我的高r 回复原厂了 换了减震 羊角和球头 车子跑偏 然后现在定位定住了 车子不怎么跑偏了 但是方向盘有一些歪 想调教调整一下</v>
+      </c>
+      <c r="F84" t="str">
+        <v>2017-03-26 10:42</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>别克新英朗</v>
+      </c>
+      <c r="B85" t="str">
+        <v>18000</v>
+      </c>
+      <c r="C85" t="str">
+        <v>13460066566</v>
+      </c>
+      <c r="D85" t="str">
+        <v>豫P018M8</v>
+      </c>
+      <c r="E85" t="str">
+        <v>等红绿灯时车偶尔有严重颤抖！想问怎么回事？</v>
+      </c>
+      <c r="F85" t="str">
+        <v>2017-03-24 16:11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>别克新英朗</v>
+      </c>
+      <c r="B86" t="str">
+        <v>18000</v>
+      </c>
+      <c r="C86" t="str">
+        <v>13460066566</v>
+      </c>
+      <c r="D86" t="str">
+        <v>豫P018</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+      <c r="F86" t="str">
+        <v>2017-03-24 16:09</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>标致308</v>
+      </c>
+      <c r="B87" t="str">
+        <v>26000</v>
+      </c>
+      <c r="C87" t="str">
+        <v>15890649495</v>
+      </c>
+      <c r="D87" t="str">
+        <v>豫AS2X95</v>
+      </c>
+      <c r="E87" t="str">
+        <v>车子在行驶过程中，一过小沟，会有噔噔的声音，换了拉杆儿，还是有响声</v>
+      </c>
+      <c r="F87" t="str">
+        <v>2017-03-24 12:09</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>标志207</v>
+      </c>
+      <c r="B88" t="str">
+        <v>五万公里</v>
+      </c>
+      <c r="C88" t="str">
+        <v>13673367212</v>
+      </c>
+      <c r="D88" t="str">
+        <v>豫A7212L</v>
+      </c>
+      <c r="E88" t="str">
+        <v>车辆行驶中方向盘抖动</v>
+      </c>
+      <c r="F88" t="str">
+        <v>2017-03-24 11:24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>轩逸</v>
+      </c>
+      <c r="B89" t="str">
+        <v>70600</v>
+      </c>
+      <c r="C89" t="str">
+        <v>17729761697</v>
+      </c>
+      <c r="D89" t="str">
+        <v>豫AG160U</v>
+      </c>
+      <c r="E89" t="str">
+        <v>冷车发动怠速低，车身抖，发动机故障灯亮。节气门，进气门，三元催化，油路都清洗了。现在每天早上发动车还是抖，故障灯消了又亮。</v>
+      </c>
+      <c r="F89" t="str">
+        <v>2017-03-24 09:33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>起亚福瑞迪</v>
+      </c>
+      <c r="B90" t="str">
+        <v>88600</v>
+      </c>
+      <c r="C90" t="str">
+        <v>15803813169</v>
+      </c>
+      <c r="D90" t="str">
+        <v>豫A86Y68</v>
+      </c>
+      <c r="E90" t="str">
+        <v>离合器异响，空调开关失灵</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2017-03-24 09:02</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>名图</v>
+      </c>
+      <c r="B91" t="str">
+        <v>44000</v>
+      </c>
+      <c r="C91" t="str">
+        <v>18538165787</v>
+      </c>
+      <c r="D91" t="str">
+        <v>豫A2D07N</v>
+      </c>
+      <c r="E91" t="str">
+        <v>更换电瓶</v>
+      </c>
+      <c r="F91" t="str">
+        <v>2017-03-23 16:46</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>丰田皇冠</v>
+      </c>
+      <c r="B92" t="str">
+        <v>6万</v>
+      </c>
+      <c r="C92" t="str">
+        <v>13526868568</v>
+      </c>
+      <c r="D92" t="str">
+        <v>豫AF0033</v>
+      </c>
+      <c r="E92" t="str">
+        <v>高速行驶抖动</v>
+      </c>
+      <c r="F92" t="str">
+        <v>2017-03-23 11:42</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>标志207</v>
+      </c>
+      <c r="B93" t="str">
+        <v>5万</v>
+      </c>
+      <c r="C93" t="str">
+        <v>13673367212</v>
+      </c>
+      <c r="D93" t="str">
+        <v>豫A7212L</v>
+      </c>
+      <c r="E93" t="str">
+        <v>行驶中方向盘抖动</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2017-03-23 09:11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>丰田皇冠</v>
+      </c>
+      <c r="B94" t="str">
+        <v>6万</v>
+      </c>
+      <c r="C94" t="str">
+        <v>13526868568</v>
+      </c>
+      <c r="D94" t="str">
+        <v>豫AF0033</v>
+      </c>
+      <c r="E94" t="str">
+        <v>车辆高速行驶时抖动</v>
+      </c>
+      <c r="F94" t="str">
+        <v>2017-03-23 07:56</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>起亚K4</v>
+      </c>
+      <c r="B95" t="str">
+        <v>31200</v>
+      </c>
+      <c r="C95" t="str">
+        <v>13673699324</v>
+      </c>
+      <c r="D95" t="str">
+        <v>豫AF50M8</v>
+      </c>
+      <c r="E95" t="str">
+        <v>有上门取车的服务吗？不确定什么时候有时间去</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2017-03-23 07:46</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>标志207</v>
+      </c>
+      <c r="B96" t="str">
+        <v>5万</v>
+      </c>
+      <c r="C96" t="str">
+        <v>13673367212</v>
+      </c>
+      <c r="D96" t="str">
+        <v>豫A7212L</v>
+      </c>
+      <c r="E96" t="str">
+        <v>行驶中方向盘抖动</v>
+      </c>
+      <c r="F96" t="str">
+        <v>2017-03-22 17:35</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>宏光s1</v>
+      </c>
+      <c r="B97" t="str">
+        <v>4万</v>
+      </c>
+      <c r="C97" t="str">
+        <v>13503481987</v>
+      </c>
+      <c r="D97" t="str">
+        <v>m2621</v>
+      </c>
+      <c r="E97" t="str">
+        <v>4档同步器坏了，现在维修有什么影响没有，</v>
+      </c>
+      <c r="F97" t="str">
+        <v>2017-03-22 11:55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2014款轩逸</v>
+      </c>
+      <c r="B98" t="str">
+        <v>13万</v>
+      </c>
+      <c r="C98" t="str">
+        <v>18638576001</v>
+      </c>
+      <c r="D98" t="str">
+        <v>豫AG2N01</v>
+      </c>
+      <c r="E98" t="str">
+        <v>烧机油越来越严重</v>
+      </c>
+      <c r="F98" t="str">
+        <v>2017-03-20 14:36</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>长安之星</v>
+      </c>
+      <c r="B99" t="str">
+        <v>7万</v>
+      </c>
+      <c r="C99" t="str">
+        <v>18837106007</v>
+      </c>
+      <c r="D99" t="str">
+        <v>豫A5T228</v>
+      </c>
+      <c r="E99" t="str">
+        <v>堵车高温，烧机油，手刹失灵，左后门需钣金喷漆。</v>
+      </c>
+      <c r="F99" t="str">
+        <v>2017-03-20 12:14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>奔驰C260 2013款</v>
+      </c>
+      <c r="B100" t="str">
+        <v>55483</v>
+      </c>
+      <c r="C100" t="str">
+        <v>18638008620</v>
+      </c>
+      <c r="D100" t="str">
+        <v>豫AY079M</v>
+      </c>
+      <c r="E100" t="str">
+        <v>行驶中出现ESP停止工作，同时胎压监测停止工作，Hold 功能不能使用，求咨询</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2017-03-20 11:30</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>比亚迪F3 手动15年标准版</v>
+      </c>
+      <c r="B101" t="str">
+        <v>2.9万公里</v>
+      </c>
+      <c r="C101" t="str">
+        <v>13703829023</v>
+      </c>
+      <c r="D101" t="str">
+        <v>豫R170H7</v>
+      </c>
+      <c r="E101" t="str">
+        <v>低速踩下离合器后转速一直升高！</v>
+      </c>
+      <c r="F101" t="str">
+        <v>2017-03-19 17:37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>中华v3</v>
+      </c>
+      <c r="B102" t="str">
+        <v>17000</v>
+      </c>
+      <c r="C102" t="str">
+        <v>15225153550</v>
+      </c>
+      <c r="D102" t="str">
+        <v>豫A 15GE7</v>
+      </c>
+      <c r="E102" t="str">
+        <v>剐蹭划痕喷漆</v>
+      </c>
+      <c r="F102" t="str">
+        <v>2017-03-18 22:27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>长安欧力威1.4尽享2013款</v>
+      </c>
+      <c r="B103" t="str">
+        <v>51300</v>
+      </c>
+      <c r="C103" t="str">
+        <v>15333817232</v>
+      </c>
+      <c r="D103" t="str">
+        <v>豫a0mr69</v>
+      </c>
+      <c r="E103" t="str">
+        <v>51000刚保养完回了趟老家，没注意把机滤碰烂了，机油漏完汽车发出格拉格拉的异响才发现，又跑了2-3公里赶快换了新的机油机滤，但是汽车超过2000转还是有异响，估计是曲轴什么的磨活动了，问下老杨那里可以修吗？大概多少钱？</v>
+      </c>
+      <c r="F103" t="str">
+        <v>2017-03-18 17:32</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>别克英朗</v>
+      </c>
+      <c r="B104" t="str">
+        <v>37289</v>
+      </c>
+      <c r="C104" t="str">
+        <v>13837120723</v>
+      </c>
+      <c r="D104" t="str">
+        <v>豫A2KH27</v>
+      </c>
+      <c r="E104" t="str">
+        <v>正常行驶抖动，2月份保养的时候清理过节气门，换过火花塞</v>
+      </c>
+      <c r="F104" t="str">
+        <v>2017-03-18 17:27</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>荣威350</v>
+      </c>
+      <c r="B105" t="str">
+        <v>40000</v>
+      </c>
+      <c r="C105" t="str">
+        <v>15290881696</v>
+      </c>
+      <c r="D105" t="str">
+        <v>豫A696ZH</v>
+      </c>
+      <c r="E105" t="str">
+        <v>打火时排气管嘟嘟响，一分钟后就不响，感觉加油车没劲</v>
+      </c>
+      <c r="F105" t="str">
+        <v>2017-03-18 10:58</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>雪佛兰</v>
+      </c>
+      <c r="B106" t="str">
+        <v>54692</v>
+      </c>
+      <c r="C106" t="str">
+        <v>15093169594</v>
+      </c>
+      <c r="D106" t="str">
+        <v>豫A28WE9</v>
+      </c>
+      <c r="E106" t="str">
+        <v>发动机怠速抖动</v>
+      </c>
+      <c r="F106" t="str">
+        <v>2017-03-17 19:49</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>奔腾B50</v>
+      </c>
+      <c r="B107" t="str">
+        <v>883000</v>
+      </c>
+      <c r="C107" t="str">
+        <v>18605936321</v>
+      </c>
+      <c r="D107" t="str">
+        <v>豫AF725P</v>
+      </c>
+      <c r="E107" t="str">
+        <v>助力油漏了</v>
+      </c>
+      <c r="F107" t="str">
+        <v>2017-03-17 18:28</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>高7</v>
+      </c>
+      <c r="B108" t="str">
+        <v>51000</v>
+      </c>
+      <c r="C108" t="str">
+        <v>18838156597</v>
+      </c>
+      <c r="D108" t="str">
+        <v>豫AB83A0</v>
+      </c>
+      <c r="F108" t="str">
+        <v>2017-03-17 15:33</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>宝马730</v>
+      </c>
+      <c r="B109" t="str">
+        <v>107000</v>
+      </c>
+      <c r="C109" t="str">
+        <v>15237182251</v>
+      </c>
+      <c r="D109" t="str">
+        <v>豫A07ZQ0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>方向盘异响，有间隙。还需要保养</v>
+      </c>
+      <c r="F109" t="str">
+        <v>2017-03-17 12:42</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2014款上海大众帕萨特1.8T御尊班</v>
+      </c>
+      <c r="B110" t="str">
+        <v>95000</v>
+      </c>
+      <c r="C110" t="str">
+        <v>13526801003</v>
+      </c>
+      <c r="D110" t="str">
+        <v>豫A7HK25</v>
+      </c>
+      <c r="E110" t="str">
+        <v>车友有异响 4s店检查说飞轮坏了 取出来一些零件碎片  没有修理 目前还能跑 想咨询一下是否还需要修理</v>
+      </c>
+      <c r="F110" t="str">
+        <v>2017-03-16 21:50</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>宝来</v>
+      </c>
+      <c r="B111" t="str">
+        <v>25000</v>
+      </c>
+      <c r="C111" t="str">
+        <v>13523546512</v>
+      </c>
+      <c r="D111" t="str">
+        <v>豫AQ695W</v>
+      </c>
+      <c r="E111" t="str">
+        <v>发动机故障灯亮了一年，油耗高。2012年我父亲买的，我经常出差，家人偶尔开开。我过些天准备开车去云贵川长期出差，做一下全面检查和保养需要多少钱。</v>
+      </c>
+      <c r="F111" t="str">
+        <v>2017-03-16 13:43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>标致 307</v>
+      </c>
+      <c r="B112" t="str">
+        <v>85000</v>
+      </c>
+      <c r="C112" t="str">
+        <v>15890111197</v>
+      </c>
+      <c r="D112" t="str">
+        <v>豫A3SC09</v>
+      </c>
+      <c r="E112" t="str">
+        <v>熄火突然打不着，水温表时速表转速表一直在轻微晃动，保险盒那儿发出哒哒的声音，以上是在无任何操作情况下</v>
+      </c>
+      <c r="F112" t="str">
+        <v>2017-03-16 13:08</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>花冠</v>
+      </c>
+      <c r="B113" t="str">
+        <v>88700</v>
+      </c>
+      <c r="C113" t="str">
+        <v>18790287985</v>
+      </c>
+      <c r="D113" t="str">
+        <v>豫A738</v>
+      </c>
+      <c r="E113" t="str">
+        <v>换刹车</v>
+      </c>
+      <c r="F113" t="str">
+        <v>2017-03-16 11:18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>花冠</v>
+      </c>
+      <c r="B114" t="str">
+        <v>87000</v>
+      </c>
+      <c r="C114" t="str">
+        <v>18790287985</v>
+      </c>
+      <c r="D114" t="str">
+        <v>豫A738E8</v>
+      </c>
+      <c r="E114" t="str">
+        <v>换刹车片</v>
+      </c>
+      <c r="F114" t="str">
+        <v>2017-03-16 11:12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>2011款蒙迪欧致胜</v>
+      </c>
+      <c r="B115" t="str">
+        <v>17万</v>
+      </c>
+      <c r="C115" t="str">
+        <v>18603927012</v>
+      </c>
+      <c r="D115" t="str">
+        <v>豫A9863</v>
+      </c>
+      <c r="E115" t="str">
+        <v>后羊角橡胶套老化，请教一下维修费用。何时能预约？</v>
+      </c>
+      <c r="F115" t="str">
+        <v>2017-03-16 09:42</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>马六</v>
+      </c>
+      <c r="B116" t="str">
+        <v>150220</v>
+      </c>
+      <c r="C116" t="str">
+        <v>18638756722</v>
+      </c>
+      <c r="D116" t="str">
+        <v>鲁Bc282u</v>
+      </c>
+      <c r="E116" t="str">
+        <v>车辆喷漆</v>
+      </c>
+      <c r="F116" t="str">
+        <v>2017-03-15 19:20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>开瑞优雅2代</v>
+      </c>
+      <c r="B117" t="str">
+        <v>35300</v>
+      </c>
+      <c r="C117" t="str">
+        <v>18039230570</v>
+      </c>
+      <c r="D117" t="str">
+        <v>豫FYH528</v>
+      </c>
+      <c r="E117" t="str">
+        <v>发动机噪音大</v>
+      </c>
+      <c r="F117" t="str">
+        <v>2017-03-15 15:18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>吉利博越</v>
+      </c>
+      <c r="B118" t="str">
+        <v>6200</v>
+      </c>
+      <c r="C118" t="str">
+        <v>15649866062</v>
+      </c>
+      <c r="D118" t="str">
+        <v>豫A12BW2</v>
+      </c>
+      <c r="E118" t="str">
+        <v>钣金喷漆</v>
+      </c>
+      <c r="F118" t="str">
+        <v>2017-03-15 15:03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>宝马X5</v>
+      </c>
+      <c r="B119" t="str">
+        <v>9000</v>
+      </c>
+      <c r="C119" t="str">
+        <v>15515131257</v>
+      </c>
+      <c r="D119" t="str">
+        <v>豫EA1A98</v>
+      </c>
+      <c r="E119" t="str">
+        <v>右边大灯碰了一下 里边的一个灯圈不亮了 可以修复吗？</v>
+      </c>
+      <c r="F119" t="str">
+        <v>2017-03-15 12:10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>吉利博瑞</v>
+      </c>
+      <c r="B120" t="str">
+        <v>3000</v>
+      </c>
+      <c r="C120" t="str">
+        <v>13837153545</v>
+      </c>
+      <c r="D120" t="str">
+        <v>豫A00RT2</v>
+      </c>
+      <c r="E120" t="str">
+        <v>保险杠上的塑料覆盖件破洞</v>
+      </c>
+      <c r="F120" t="str">
+        <v>2017-03-14 14:39</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>JEEP大切诺基</v>
+      </c>
+      <c r="B121" t="str">
+        <v>162000</v>
+      </c>
+      <c r="C121" t="str">
+        <v>18937654889</v>
+      </c>
+      <c r="D121" t="str">
+        <v>豫JQ3009</v>
+      </c>
+      <c r="E121" t="str">
+        <v>转弯有格啦格啦响，高速在80时噪音很大。</v>
+      </c>
+      <c r="F121" t="str">
+        <v>2017-03-14 11:22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>2013款途胜</v>
+      </c>
+      <c r="B122" t="str">
+        <v>35000</v>
+      </c>
+      <c r="C122" t="str">
+        <v>15638809921</v>
+      </c>
+      <c r="D122" t="str">
+        <v>豫AF5V10</v>
+      </c>
+      <c r="E122" t="str">
+        <v>发动机异响</v>
+      </c>
+      <c r="F122" t="str">
+        <v>2017-03-13 19:39</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>本田奥德赛</v>
+      </c>
+      <c r="B123" t="str">
+        <v>100000</v>
+      </c>
+      <c r="C123" t="str">
+        <v>13027611903</v>
+      </c>
+      <c r="D123" t="str">
+        <v>豫A95VZ1</v>
+      </c>
+      <c r="E123" t="str">
+        <v>车辆一千五百转匀速行驶会出现顿挫的感觉，一咣一咣的，2000转的开就没有这种感觉了，才换了火花塞，</v>
+      </c>
+      <c r="F123" t="str">
+        <v>2017-03-13 13:56</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>江淮瑞风</v>
+      </c>
+      <c r="B124" t="str">
+        <v>94000</v>
+      </c>
+      <c r="C124" t="str">
+        <v>15837137602</v>
+      </c>
+      <c r="D124" t="str">
+        <v>豫AG77W9</v>
+      </c>
+      <c r="E124" t="str">
+        <v>油箱有油，油表灯报警，但是跑一会以后油表指针自己慢慢往上升，怎么回事？是传感器的问题还是什么</v>
+      </c>
+      <c r="F124" t="str">
+        <v>2017-03-13 11:29</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>科鲁兹</v>
+      </c>
+      <c r="B125" t="str">
+        <v>47000</v>
+      </c>
+      <c r="C125" t="str">
+        <v>15136163539</v>
+      </c>
+      <c r="D125" t="str">
+        <v>豫A4YX56</v>
+      </c>
+      <c r="F125" t="str">
+        <v>2017-03-13 09:07</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>荣威360</v>
+      </c>
+      <c r="B126" t="str">
+        <v>3万公里</v>
+      </c>
+      <c r="C126" t="str">
+        <v>13140070781</v>
+      </c>
+      <c r="D126" t="str">
+        <v>豫A8M85K</v>
+      </c>
+      <c r="E126" t="str">
+        <v>原装的扬声器音质不好，音量太小，想更换质量好点的</v>
+      </c>
+      <c r="F126" t="str">
+        <v>2017-03-12 17:51</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>荣威360</v>
+      </c>
+      <c r="B127" t="str">
+        <v>3万公里</v>
+      </c>
+      <c r="C127" t="str">
+        <v>13140070781</v>
+      </c>
+      <c r="D127" t="str">
+        <v>豫A8M85K</v>
+      </c>
+      <c r="E127" t="str">
+        <v>原装的扬声器音质不好，音量小，想重新更换</v>
+      </c>
+      <c r="F127" t="str">
+        <v>2017-03-12 17:45</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>大众凌渡</v>
+      </c>
+      <c r="B128" t="str">
+        <v>4680</v>
+      </c>
+      <c r="C128" t="str">
+        <v>17737790118</v>
+      </c>
+      <c r="D128" t="str">
+        <v>豫A2AY16</v>
+      </c>
+      <c r="E128" t="str">
+        <v>四轮定位</v>
+      </c>
+      <c r="F128" t="str">
+        <v>2017-03-12 09:54</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>大众凌渡</v>
+      </c>
+      <c r="B129" t="str">
+        <v>4680</v>
+      </c>
+      <c r="C129" t="str">
+        <v>17737790118</v>
+      </c>
+      <c r="D129" t="str">
+        <v>豫A2AY16</v>
+      </c>
+      <c r="E129" t="str">
+        <v>左前轮外倾角过大</v>
+      </c>
+      <c r="F129" t="str">
+        <v>2017-03-12 09:00</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>大切诺基</v>
+      </c>
+      <c r="B130" t="str">
+        <v>162000</v>
+      </c>
+      <c r="C130" t="str">
+        <v>18937654889</v>
+      </c>
+      <c r="D130" t="str">
+        <v>豫AW3G08</v>
+      </c>
+      <c r="E130" t="str">
+        <v>转弯时前半轴咯啦格啦响，车速到80的时候噪音很大</v>
+      </c>
+      <c r="F130" t="str">
+        <v>2017-03-11 14:57</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
         <v>昌河铃木派喜</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B131" t="str">
         <v>3万</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C131" t="str">
         <v>15238625630</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D131" t="str">
         <v>豫A1KA57</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E131" t="str">
         <v>能联系我一下吗，文字说不清</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F131" t="str">
         <v>2017-03-11 14:50</v>
       </c>
     </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
         <v>金杯海狮</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B132" t="str">
         <v>170000</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C132" t="str">
         <v>18337103923</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D132" t="str">
         <v>赣CV8765</v>
       </c>
-      <c r="E14" t="str" xml:space="preserve">
+      <c r="E132" t="str" xml:space="preserve">
         <v xml:space="preserve">发动机缺缸，维修好几次没办法解决
 顺便问一下跟换发动机费用</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F132" t="str">
         <v>2017-03-11 14:17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
+    <row r="133">
+      <c r="A133" t="str">
         <v>宝骏510</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B133" t="str">
         <v>660</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C133" t="str">
         <v>15136182375</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D133" t="str">
         <v>豫A5PR15</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E133" t="str">
         <v>补漆</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F133" t="str">
         <v>2017-03-11 13:08</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
+    <row r="134">
+      <c r="A134" t="str">
         <v>大途观</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C134" t="str">
         <v>13526552177</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D134" t="str">
         <v>豫AU97S8</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E134" t="str">
         <v>发动机漏油</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F134" t="str">
         <v>2017-03-11 08:47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
+    <row r="135">
+      <c r="A135" t="str">
         <v>昌河铃木派喜</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B135" t="str">
         <v>两万多公里</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C135" t="str">
         <v>15238625630</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D135" t="str">
         <v>豫A.1KA57</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E135" t="str">
         <v>车头严重变形</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F135" t="str">
         <v>2017-03-10 11:19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
+    <row r="136">
+      <c r="A136" t="str">
         <v>帕萨特</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B136" t="str">
         <v>54785</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C136" t="str">
         <v>15939266428</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D136" t="str">
         <v>豫AC686C</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E136" t="str">
         <v>喷漆</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F136" t="str">
         <v>2017-03-09 13:15</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
+    <row r="137">
+      <c r="A137" t="str">
         <v>哈弗h6  SUV</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B137" t="str">
         <v>13400</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C137" t="str">
         <v>17797759375</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D137" t="str">
         <v>豫GJ8615</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E137" t="str">
         <v>前保险杠撞了一个坑，玻璃水罐撞漏了，大灯和雾灯不知道有事没</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F137" t="str">
         <v>2017-03-09 12:03</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
+    <row r="138">
+      <c r="A138" t="str">
         <v>哈弗h6</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B138" t="str">
         <v>13400</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C138" t="str">
         <v>17797759375</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D138" t="str">
         <v>豫GJ8615</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E138" t="str">
         <v>右前轮撞在水泥墩路障上，撞了一个坑，前保险杠得换，玻璃水罐都漏了</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F138" t="str">
         <v>2017-03-09 12:00</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="139">
+      <c r="A139" t="str">
         <v>传祺GS5</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B139" t="str">
         <v>65000</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C139" t="str">
         <v>13007539509</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D139" t="str">
         <v>豫AW059L</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E139" t="str">
         <v>转向油更换</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F139" t="str">
         <v>2017-03-09 11:32</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
+    <row r="140">
+      <c r="A140" t="str">
         <v>大众帕萨特</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C140" t="str">
         <v>15939266428</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D140" t="str">
         <v>AC686C</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F140" t="str">
         <v>2017-03-09 10:50</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
+    <row r="141">
+      <c r="A141" t="str">
         <v>奔驰</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B141" t="str">
         <v>4.6万</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C141" t="str">
         <v>18639012151</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D141" t="str">
         <v>予A1MQ95</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E141" t="str">
         <v>更换右前下支臂</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F141" t="str">
         <v>2017-03-09 08:59</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
+    <row r="142">
+      <c r="A142" t="str">
         <v>赛欧</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B142" t="str">
         <v>43000</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C142" t="str">
         <v>13592457104</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D142" t="str">
         <v>豫a6ry80</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E142" t="str">
         <v>追尾其他车辆，引擎盖变形，需要维修</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F142" t="str">
         <v>2017-03-09 08:55</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
+    <row r="143">
+      <c r="A143" t="str">
         <v>迈腾</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B143" t="str">
         <v>80000</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C143" t="str">
         <v>13838562920</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D143" t="str">
         <v>豫A1EL21</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E143" t="str">
         <v>天窗玻璃突然炸裂了，得换块玻璃</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F143" t="str">
         <v>2017-03-08 19:09</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
+    <row r="144">
+      <c r="A144" t="str">
         <v>黄海期圣V3</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B144" t="str">
         <v>55000</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C144" t="str">
         <v>13837142398</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D144" t="str">
         <v>皖HVN333</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E144" t="str">
         <v>不定时的换档困难</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F144" t="str">
         <v>2017-03-08 16:31</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
+    <row r="145">
+      <c r="A145" t="str">
         <v>北京现代瑞纳三厢</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B145" t="str">
         <v>77360km</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C145" t="str">
         <v>13700876608</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D145" t="str">
         <v>豫pe0623</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E145" t="str">
         <v>更换前后保险杠，全车喷漆，车门稍微变形</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F145" t="str">
         <v>2017-03-07 11:54</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
+    <row r="146">
+      <c r="A146" t="str">
         <v>北京现代途胜</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B146" t="str">
         <v>240000</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C146" t="str">
         <v>18574100615</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D146" t="str">
         <v>豫A6052H</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E146" t="str">
         <v>东区修车地点和联系方式</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F146" t="str">
         <v>2017-03-06 14:49</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
+    <row r="147">
+      <c r="A147" t="str">
         <v>奥德赛</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B147" t="str">
         <v>34万</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C147" t="str">
         <v>15038058788</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D147" t="str">
         <v>豫A075E8</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E147" t="str">
         <v>清洗喷嘴，检查后减震器</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F147" t="str">
         <v>2017-03-06 11:38</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
+    <row r="148">
+      <c r="A148" t="str">
         <v>宝来</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B148" t="str">
         <v>78000</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C148" t="str">
         <v>18639550688</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D148" t="str">
         <v>豫A3F377</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E148" t="str">
         <v>请问店的地址在哪里？</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F148" t="str">
         <v>2017-03-05 14:28</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
+    <row r="149">
+      <c r="A149" t="str">
         <v>宝来</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C149" t="str">
         <v>18639550688</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D149" t="str">
         <v>豫A3F377</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F149" t="str">
         <v>2017-03-05 14:19</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
+    <row r="150">
+      <c r="A150" t="str">
         <v>奥迪a3</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B150" t="str">
         <v>忘记了 2年了</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C150" t="str">
         <v>18638266216</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D150" t="str">
         <v>豫AB21H2</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E150" t="str">
         <v>买了两年了 昨天开始打不着火了 提示蓄电池电量低 怀疑是电池不行了 想换个电池 咱们这儿有原厂的带启停的电瓶吗</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F150" t="str">
         <v>2017-03-05 14:10</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
+    <row r="151">
+      <c r="A151" t="str">
         <v>荣威350</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B151" t="str">
         <v>940000</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C151" t="str">
         <v>18638118571</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D151" t="str">
         <v>豫A7FR60</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E151" t="str">
         <v>高数刹车方向盘抖</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F151" t="str">
         <v>2017-03-05 13:27</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
+    <row r="152">
+      <c r="A152" t="str">
         <v>荣威350</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B152" t="str">
         <v>94000</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C152" t="str">
         <v>18638118571</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D152" t="str">
         <v>豫A7FR60</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E152" t="str">
         <v>高数刹车方向盘抖</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F152" t="str">
         <v>2017-03-05 13:04</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
+    <row r="153">
+      <c r="A153" t="str">
         <v>奥迪A4L</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B153" t="str">
         <v>26000</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C153" t="str">
         <v>15003996756</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D153" t="str">
         <v>豫A3XL02</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E153" t="str">
         <v>2014年4月购车于河南奥鑫4S店，目前里程26000公里。半年前出险车钥匙没电的情况，在洗车行更换电池后，开车跑一趟新电池就没电了。两把钥匙都是如此。前几个月抱着试试心态又更换一下电池，还是开过一趟就没电。今天去4S店检修，说未发现故障，让更换4S店销售的电池来排查故障，换了之后还是同样问题。现在4S店说如果是遥控器有问题的话需要更换新遥控器，但是因为我没有定期在4S店保养，虽然质保期没过，也不负责赔付给我新遥控器。现在我该检查什么？还是找4S店索赔？</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F153" t="str">
         <v>2017-03-04 22:11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
+    <row r="154">
+      <c r="A154" t="str">
         <v>2011款迈腾1.4T</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B154" t="str">
         <v>13W</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C154" t="str">
         <v>15838031527</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D154" t="str">
         <v>豫A6U12R</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E154" t="str">
         <v>方向盘转向柱疑似接触不良，一猛打方向盘故障灯亮。</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F154" t="str">
         <v>2017-03-04 17:02</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
+    <row r="155">
+      <c r="A155" t="str">
         <v>家轿</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B155" t="str">
         <v>9万</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C155" t="str">
         <v>13603982565</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D155" t="str">
         <v>豫A687BV</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F155" t="str">
         <v>2017-03-04 16:43</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
+    <row r="156">
+      <c r="A156" t="str">
         <v>北京汽车E130</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B156" t="str">
         <v>76000</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C156" t="str">
         <v>18838066266</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D156" t="str">
         <v>豫AX772H</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E156" t="str">
         <v>喷漆</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F156" t="str">
         <v>2017-03-04 16:35</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
+    <row r="157">
+      <c r="A157" t="str">
         <v>凯迪拉克srx</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B157" t="str">
         <v>40000</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C157" t="str">
         <v>13803786559</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D157" t="str">
         <v>豫AV8W95</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E157" t="str">
         <v>一侧迎宾踏板加后保险杠喷漆</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F157" t="str">
         <v>2017-03-04 16:35</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
+    <row r="158">
+      <c r="A158" t="str">
         <v>凯迪拉克srx</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B158" t="str">
         <v>40000</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C158" t="str">
         <v>13803786559</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D158" t="str">
         <v>豫AV8W95</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E158" t="str">
         <v>轮毂刮花</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F158" t="str">
         <v>2017-03-04 16:33</v>
       </c>
     </row>
-    <row r="41" xml:space="preserve">
-      <c r="A41" t="str">
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
         <v>北汽幻速h3</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B159" t="str">
         <v>1900</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C159" t="str">
         <v>18637875105</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D159" t="str">
         <v>豫BM3505</v>
       </c>
-      <c r="E41" t="str" xml:space="preserve">
+      <c r="E159" t="str" xml:space="preserve">
         <v xml:space="preserve">年前买车时销售员答应送我六次保养   三年用完
 但是没有给我任何凭证  我现在担心的是 没有凭证以后坐保养他们收费怎么办？</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F159" t="str">
         <v>2017-03-04 14:03</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
+    <row r="160">
+      <c r="A160" t="str">
         <v>五菱之光</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B160" t="str">
         <v>64500</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C160" t="str">
         <v>18939576326</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D160" t="str">
         <v>豫a0LS56</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E160" t="str">
         <v>水箱高温，希望帮忙解决问题。</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F160" t="str">
         <v>2017-03-04 13:10</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
+    <row r="161">
+      <c r="A161" t="str">
         <v>天籁</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B161" t="str">
         <v>46000</v>
       </c>
-      <c r="C43" t="str">
+      <c r="C161" t="str">
         <v>13283841212</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D161" t="str">
         <v>豫As 25 g 8</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E161" t="str">
         <v>维修</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F161" t="str">
         <v>2017-03-04 12:05</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
+    <row r="162">
+      <c r="A162" t="str">
         <v>宝马</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B162" t="str">
         <v>45000</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C162" t="str">
         <v>13803890665</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D162" t="str">
         <v>豫AM916B</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E162" t="str">
         <v>更换刹车片</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F162" t="str">
         <v>2017-03-03 11:59</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
+    <row r="163">
+      <c r="A163" t="str">
         <v>10款明锐1.4t</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B163" t="str">
         <v>6.46</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C163" t="str">
         <v>18638767428</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D163" t="str">
         <v>鲁D557A1</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E163" t="str">
         <v>多功能方向盘一个键失灵了；胎压监测故障报警，但胎压正常；排气管突突响，且无水份产生，尾气难闻</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F163" t="str">
         <v>2017-03-03 11:08</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
+    <row r="164">
+      <c r="A164" t="str">
         <v>宝马</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B164" t="str">
         <v>45000</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C164" t="str">
         <v>13803890665</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D164" t="str">
         <v>豫am916b</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E164" t="str">
         <v>更换刹车片</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F164" t="str">
         <v>2017-03-03 08:32</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
+    <row r="165">
+      <c r="A165" t="str">
         <v>上汽大众朗逸</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B165" t="str">
         <v>56587</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C165" t="str">
         <v>18538235313</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D165" t="str">
         <v>豫A9WP88</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E165" t="str">
         <v>左后叶子板钣金喷漆，其他部位喷漆。</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F165" t="str">
         <v>2017-03-03 07:09</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
+    <row r="166">
+      <c r="A166" t="str">
         <v>东风小康c37</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B166" t="str">
         <v>40350</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C166" t="str">
         <v>15538152525</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D166" t="str">
         <v>豫</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E166" t="str">
         <v>车子启动异响</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F166" t="str">
         <v>2017-03-02 15:15</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
+    <row r="167">
+      <c r="A167" t="str">
         <v>东风本田CRV</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B167" t="str">
         <v>95000</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C167" t="str">
         <v>13838249921</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D167" t="str">
         <v>豫A358HA</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E167" t="str">
         <v>1.前保险杠剐蹭喷漆，2.后备箱门车牌右上方钣金喷漆，3.左后方刹车灯不亮，4.想换一个遮光的车膜。希望看到给我回复，因为上班要用车，想周六送过去，周日提车。如果时间紧张，也可周五下班送去。</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F167" t="str">
         <v>2017-03-02 14:39</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
+    <row r="168">
+      <c r="A168" t="str">
         <v>途观</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B168" t="str">
         <v>42000</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C168" t="str">
         <v>13838550607</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D168" t="str">
         <v>豫A2LV66</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E168" t="str">
         <v>前减震异响，去维修厂查看，说减震没问题，把胶套换了，但是还是响。过坑的时候不响，但急加速或者刹车就会异响。</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F168" t="str">
         <v>2017-03-02 11:10</v>
       </c>
     </row>
-    <row r="51" xml:space="preserve">
-      <c r="A51" t="str">
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
         <v>传祺gs5</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B169" t="str">
         <v>80000</v>
       </c>
-      <c r="C51" t="str">
+      <c r="C169" t="str">
         <v>13903843031</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D169" t="str">
         <v>豫A8AZ88</v>
       </c>
-      <c r="E51" t="str" xml:space="preserve">
+      <c r="E169" t="str" xml:space="preserve">
         <v xml:space="preserve">冷车一键启动，车辆抖动厉害，转速不稳定
 另外3500转以上，有股焦糊味</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F169" t="str">
         <v>2017-03-02 11:09</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
+    <row r="170">
+      <c r="A170" t="str">
         <v>东风雷诺科雷傲</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B170" t="str">
         <v>5300</v>
       </c>
-      <c r="C52" t="str">
+      <c r="C170" t="str">
         <v>15737115509</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D170" t="str">
         <v>豫A85</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E170" t="str">
         <v/>
       </c>
-      <c r="F52" t="str">
+      <c r="F170" t="str">
         <v>2017-03-02 08:28</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
+    <row r="171">
+      <c r="A171" t="str">
         <v>13款雪佛兰科鲁兹</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B171" t="str">
         <v>83000</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C171" t="str">
         <v>15839110158</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D171" t="str">
         <v>豫A3JF21</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E171" t="str">
         <v>13款雪佛兰科鲁兹跑了8万多公里，现在出现一顿一顿的症状。跑了两天故障灯也亮了，是怎么回事啊？</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F171" t="str">
         <v>2017-03-02 08:21</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
+    <row r="172">
+      <c r="A172" t="str">
         <v>途胜</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B172" t="str">
         <v>124000</v>
       </c>
-      <c r="C54" t="str">
+      <c r="C172" t="str">
         <v>15738399007</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D172" t="str">
         <v>豫A885AR</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E172" t="str">
         <v>左后车灯挂烂了，左边后保险杠有点变形</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F172" t="str">
         <v>2017-03-02 08:08</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
+    <row r="173">
+      <c r="A173" t="str">
         <v>福特锐界</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B173" t="str">
         <v>20000</v>
       </c>
-      <c r="C55" t="str">
+      <c r="C173" t="str">
         <v>18538186262</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D173" t="str">
         <v>豫A9Q65V</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F173" t="str">
         <v>2017-03-01 22:57</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
+    <row r="174">
+      <c r="A174" t="str">
         <v>别克凯越</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B174" t="str">
         <v>8万</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C174" t="str">
         <v>18624932157</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D174" t="str">
         <v>豫A769DW</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E174" t="str">
         <v>开着的时候转向方向盘有点沉，昨天在咱们梦工厂做个大保养，同时做了四轮定位，今天开着的时候还是感觉转向的时候方向盘有点沉，是什么情况？</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F174" t="str">
         <v>2017-03-01 11:59</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
+    <row r="175">
+      <c r="A175" t="str">
         <v>起亚K5</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B175" t="str">
         <v>3.4万</v>
       </c>
-      <c r="C57" t="str">
+      <c r="C175" t="str">
         <v>15093182957</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D175" t="str">
         <v>豫AC87N2</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E175" t="str">
         <v>车辆过低洼路段 方向盘抖动厉害</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F175" t="str">
         <v>2017-03-01 11:41</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
+    <row r="176">
+      <c r="A176" t="str">
         <v>10款景程</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B176" t="str">
         <v>108900</v>
       </c>
-      <c r="C58" t="str">
+      <c r="C176" t="str">
         <v>15639001205</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D176" t="str">
         <v>豫B29L67</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E176" t="str">
         <v>怠速震动 方向盘和车内抖动 起步抖动也厉害 过四十抖动就不明显了</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F176" t="str">
         <v>2017-03-01 11:12</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
+    <row r="177">
+      <c r="A177" t="str">
         <v>广本奥德赛</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B177" t="str">
         <v>27000</v>
       </c>
-      <c r="C59" t="str">
+      <c r="C177" t="str">
         <v>15890176737</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D177" t="str">
         <v>豫A0M07C</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E177" t="str">
         <v>喷漆</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F177" t="str">
         <v>2017-03-01 11:08</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
+    <row r="178">
+      <c r="A178" t="str">
         <v>雪佛兰科鲁兹</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B178" t="str">
         <v>83000</v>
       </c>
-      <c r="C60" t="str">
+      <c r="C178" t="str">
         <v>18037125553</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D178" t="str">
         <v>豫NJR 785</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E178" t="str">
         <v>发动机故障灯亮，自动挡车空档车抖</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F178" t="str">
         <v>2017-03-01 09:10</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
+    <row r="179">
+      <c r="A179" t="str">
         <v>起亚赛拉图</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B179" t="str">
         <v>62000</v>
       </c>
-      <c r="C61" t="str">
+      <c r="C179" t="str">
         <v>15378780983</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D179" t="str">
         <v>829x7</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E179" t="str">
         <v>怠速不稳</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F179" t="str">
         <v>2017-03-01 08:58</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
+    <row r="180">
+      <c r="A180" t="str">
         <v>北京现代朗动</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B180" t="str">
         <v>4945</v>
       </c>
-      <c r="C62" t="str">
+      <c r="C180" t="str">
         <v>15093247268</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D180" t="str">
         <v>豫KX2357</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E180" t="str">
         <v>右前灯下方有一道20cm左右的划痕想喷下漆.担心跟车本身不一色更闹心.求老杨指招</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F180" t="str">
         <v>2017-02-28 22:43</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
+    <row r="181">
+      <c r="A181" t="str">
         <v>蒙迪欧</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B181" t="str">
         <v>30000</v>
       </c>
-      <c r="C63" t="str">
+      <c r="C181" t="str">
         <v>18530936266</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D181" t="str">
         <v>豫A5G83C</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E181" t="str">
         <v>保养</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F181" t="str">
         <v>2017-02-28 14:12</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
+    <row r="182">
+      <c r="A182" t="str">
         <v>广汽丰田雷凌</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B182" t="str">
         <v>17200</v>
       </c>
-      <c r="C64" t="str">
+      <c r="C182" t="str">
         <v>13938479475</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D182" t="str">
         <v>豫A3G89C</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E182" t="str">
         <v>前轮倒车有杀车转向响声。</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F182" t="str">
         <v>2017-02-28 13:12</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
+    <row r="183">
+      <c r="A183" t="str">
         <v>新昂科拉</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B183" t="str">
         <v>5678</v>
       </c>
-      <c r="C65" t="str">
+      <c r="C183" t="str">
         <v>13783409527</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D183" t="str">
         <v>豫A85XF7</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E183" t="str">
         <v>仪表盘变成英文了</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F183" t="str">
         <v>2017-02-28 11:55</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
+    <row r="184">
+      <c r="A184" t="str">
         <v>五菱宏光</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B184" t="str">
         <v>65713</v>
       </c>
-      <c r="C66" t="str">
+      <c r="C184" t="str">
         <v>13014514448</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D184" t="str">
         <v>豫A1UY19</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E184" t="str">
         <v>方向盘抖</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F184" t="str">
         <v>2017-02-28 11:27</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
+    <row r="185">
+      <c r="A185" t="str">
         <v>三菱翼神</v>
       </c>
-      <c r="C67" t="str">
+      <c r="C185" t="str">
         <v>13838186692</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D185" t="str">
         <v>豫A2U008</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E185" t="str">
         <v>更换蓄电池，想咨询下风帆电瓶55D的价格！</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F185" t="str">
         <v>2017-02-27 16:46</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
+    <row r="186">
+      <c r="A186" t="str">
         <v>北汽威旺</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B186" t="str">
         <v>5万</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C186" t="str">
         <v>18539301148</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D186" t="str">
         <v>没有</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E186" t="str">
         <v>我的车已改天然气，有一段时间没用现在想用加上气以后车加不上油门，走的一换气车就加不上油门，请问大师咋回事</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F186" t="str">
         <v>2017-02-27 15:51</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
+    <row r="187">
+      <c r="A187" t="str">
         <v>传祺gs5</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B187" t="str">
         <v>65000</v>
       </c>
-      <c r="C69" t="str">
+      <c r="C187" t="str">
         <v>13007539509</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D187" t="str">
         <v>AW059L</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E187" t="str">
         <v>换皮带</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F187" t="str">
         <v>2017-02-27 11:59</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
+    <row r="188">
+      <c r="A188" t="str">
         <v>比亚迪L3</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B188" t="str">
         <v>35100</v>
       </c>
-      <c r="C70" t="str">
+      <c r="C188" t="str">
         <v>15093137352</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D188" t="str">
         <v>予A1WD19</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E188" t="str">
         <v>车内噪音比较大，想做个全车隔音，大概什么价位</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F188" t="str">
         <v>2017-02-27 11:42</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
+    <row r="189">
+      <c r="A189" t="str">
         <v>三菱翼神</v>
       </c>
-      <c r="C71" t="str">
+      <c r="C189" t="str">
         <v>13838186692</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D189" t="str">
         <v>豫A2u008</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E189" t="str">
         <v>换电瓶</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F189" t="str">
         <v>2017-02-27 11:09</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
+    <row r="190">
+      <c r="A190" t="str">
         <v>北汽幻速s3</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B190" t="str">
         <v>9000</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C190" t="str">
         <v>15139714518</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D190" t="str">
         <v>豫n7g225</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E190" t="str">
         <v>车子水温不稳定一会高一会正常</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F190" t="str">
         <v>2017-02-26 21:33</v>
       </c>
     </row>
-    <row r="73" xml:space="preserve">
-      <c r="A73" t="str">
+    <row r="191" xml:space="preserve">
+      <c r="A191" t="str">
         <v>经典福特</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B191" t="str">
         <v>28600左右</v>
       </c>
-      <c r="C73" t="str">
+      <c r="C191" t="str">
         <v>13663001026</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D191" t="str">
         <v>豫AZ758L</v>
       </c>
-      <c r="E73" t="str" xml:space="preserve">
+      <c r="E191" t="str" xml:space="preserve">
         <v xml:space="preserve">1.右前大灯时而不亮，行车颠簸后又会亮
 2.导航时有自动断电现象，两三秒后，又恢复正常。</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F191" t="str">
         <v>2017-02-26 08:45</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
+    <row r="192">
+      <c r="A192" t="str">
         <v>荣威550</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B192" t="str">
         <v>65000</v>
       </c>
-      <c r="C74" t="str">
+      <c r="C192" t="str">
         <v>17797751550</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D192" t="str">
         <v>AP962N</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E192" t="str">
         <v>雨刷吱吱响，恢复不到原来位置。车门玻璃异响。起步车抖。需要喷漆。</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F192" t="str">
         <v>2017-02-26 07:47</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
+    <row r="193">
+      <c r="A193" t="str">
         <v>长城</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B193" t="str">
         <v>47974</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C193" t="str">
         <v>13526707752</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D193" t="str">
         <v>豫</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E193" t="str">
         <v/>
       </c>
-      <c r="F75" t="str">
+      <c r="F193" t="str">
         <v>2017-02-25 16:41</v>
       </c>
     </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+    <row r="194" xml:space="preserve">
+      <c r="A194" t="str">
         <v>07款天籁</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B194" t="str">
         <v>17万</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C194" t="str">
         <v>13849108190</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D194" t="str">
         <v>豫AM367D</v>
       </c>
-      <c r="E76" t="str" xml:space="preserve">
+      <c r="E194" t="str" xml:space="preserve">
         <v xml:space="preserve">1.车速到100方向盘抖动，过120抖动减弱，做完平衡轮胎症状没改变，
 2.方向略往左偏
 4S店检查说前右下支臂胶套烂了，说需要换下支臂！</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F194" t="str">
         <v>2017-02-25 16:24</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
+    <row r="195">
+      <c r="A195" t="str">
         <v>五菱宏光</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B195" t="str">
         <v>33700</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C195" t="str">
         <v>15838245538</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D195" t="str">
         <v>豫AC281D</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E195" t="str">
         <v>汽车右前轮悬挂系统异响。</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F195" t="str">
         <v>2017-02-24 21:32</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
+    <row r="196">
+      <c r="A196" t="str">
         <v>奇瑞V5</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B196" t="str">
         <v>10万</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C196" t="str">
         <v>13298169902</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D196" t="str">
         <v>豫A337PE</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E196" t="str">
         <v>全车喷漆多少钱，黑色，都是小划痕</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F196" t="str">
         <v>2017-02-24 13:49</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
+    <row r="197">
+      <c r="A197" t="str">
         <v>丰田锐志</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B197" t="str">
         <v>11万</v>
       </c>
-      <c r="C79" t="str">
+      <c r="C197" t="str">
         <v>18103920666</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D197" t="str">
         <v>豫FYD989</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E197" t="str">
         <v>方向盘打死，会蹭护泥板。</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F197" t="str">
         <v>2017-02-24 11:51</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="str">
+    <row r="198">
+      <c r="A198" t="str">
         <v>瑞风s3</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B198" t="str">
         <v>34000</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C198" t="str">
         <v>13653921114</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D198" t="str">
         <v>豫f65992</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E198" t="str">
         <v>车速超过80，防侧滑灯就亮了，咋回事</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F198" t="str">
         <v>2017-02-24 11:11</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
+    <row r="199">
+      <c r="A199" t="str">
         <v>奥迪A6L</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B199" t="str">
         <v>48000</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C199" t="str">
         <v>15638216366</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D199" t="str">
         <v>豫AV181Q</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E199" t="str">
         <v>车右前侧擦伤</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F199" t="str">
         <v>2017-02-24 11:09</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
+    <row r="200">
+      <c r="A200" t="str">
         <v>北京现代朗动</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B200" t="str">
         <v>4500</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C200" t="str">
         <v>18638581855</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D200" t="str">
         <v>豫A H5L81</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E200" t="str">
         <v>方向盘发打转向 咯吱咯吱响 路不好dun的也有异响</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F200" t="str">
         <v>2017-02-23 17:57</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
+    <row r="201">
+      <c r="A201" t="str">
         <v>别克</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B201" t="str">
         <v>13642</v>
       </c>
-      <c r="C83" t="str">
+      <c r="C201" t="str">
         <v>15290861917</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D201" t="str">
         <v>豫AR97C8</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E201" t="str">
         <v>因为之前有过特别坑洼的地形，车下边好像进石子了，一二三档的时候，车下边当当的响，四档以后就不响了。轮胎里没见有石子，不知什么原因，该怎么办？</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F201" t="str">
         <v>2017-02-23 13:46</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
+    <row r="202">
+      <c r="A202" t="str">
         <v>北京现代朗动</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B202" t="str">
         <v>43436</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C202" t="str">
         <v>18638581855</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D202" t="str">
         <v>豫A H5L81</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E202" t="str">
         <v>方向盘打方向咯吱咯吱响</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F202" t="str">
         <v>2017-02-23 12:08</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
+    <row r="203">
+      <c r="A203" t="str">
         <v>北京现代ix35自动挡</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B203" t="str">
         <v>10公里</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C203" t="str">
         <v>13838234274</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D203" t="str">
         <v>722EY</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E203" t="str">
         <v>在时速20到60之间，自动挡变档时，整个车的动力好像瞬间丧失，但是转速表还会正常运作并增加转速，随后就瞬间又恢复了动力，整个车猛地抽一下，然後完成变档过程</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F203" t="str">
         <v>2017-02-23 12:02</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
+    <row r="204">
+      <c r="A204" t="str">
         <v>朗逸</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B204" t="str">
         <v>23000</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C204" t="str">
         <v>15036137692</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D204" t="str">
         <v>豫A7D32T</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E204" t="str">
         <v>车子低速过坑洼时左后轮方向会发出吱吱呀呀的响声</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F204" t="str">
         <v>2017-02-23 12:01</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="str">
+    <row r="205">
+      <c r="A205" t="str">
         <v>本田 杰德</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B205" t="str">
         <v>30949</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C205" t="str">
         <v>13603990607</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D205" t="str">
         <v>豫A0ZJ10</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E205" t="str">
         <v>喷漆 保养</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F205" t="str">
         <v>2017-02-23 07:44</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
+    <row r="206">
+      <c r="A206" t="str">
         <v>本田凌派</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B206" t="str">
         <v>7000</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C206" t="str">
         <v>15737170797</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D206" t="str">
         <v>豫A0sp90</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E206" t="str">
         <v>雨刮臂带刮片多少钱？</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F206" t="str">
         <v>2017-02-21 15:41</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
+    <row r="207">
+      <c r="A207" t="str">
         <v>15经典科鲁兹</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B207" t="str">
         <v>14230</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C207" t="str">
         <v>13103898882</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D207" t="str">
         <v>豫UU2086</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E207" t="str">
         <v>有半年多了 经常在停下后准备调头、准备倒车、起步时会发出咯吱吱的声音 ，车在行走时拐弯不响 ，不是每次都想尤其是在拐弯和不平路上会多些。去4S店几次都不响 最后在上个月去时响了 工作人员说是在他那安装的发动机护板响 紧啦紧螺丝 我看到螺丝垫片都断裂啦 ，上完说好啦 可走后没两天还是响 请问会是什么问题</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F207" t="str">
         <v>2017-02-21 11:21</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
+    <row r="208">
+      <c r="A208" t="str">
         <v>雪铁龙C4L</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B208" t="str">
         <v>26450</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C208" t="str">
         <v>13271557535</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D208" t="str">
         <v>豫Ag93J2</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E208" t="str">
         <v>我想咨询一下，我的1.8L的排量，太费油了。100块钱的油跑120公里。这正常么？</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F208" t="str">
         <v>2017-02-20 23:52</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
+    <row r="209">
+      <c r="A209" t="str">
         <v>荣威350</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B209" t="str">
         <v>35000</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C209" t="str">
         <v>18838125890</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D209" t="str">
         <v>豫AE99V3</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E209" t="str">
         <v>后保险杠喷漆</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F209" t="str">
         <v>2017-02-20 17:01</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="str">
+    <row r="210">
+      <c r="A210" t="str">
         <v>08年北斗星1.4</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B210" t="str">
         <v>80000</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C210" t="str">
         <v>13849208890</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D210" t="str">
         <v>豫FVW886</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E210" t="str">
         <v>你好！无论升2档还是降2档，无论热车还是凉车，就是换2档抖动的厉害，不够平顺，赐教！谢谢</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F210" t="str">
         <v>2017-02-20 11:52</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="str">
+    <row r="211">
+      <c r="A211" t="str">
         <v>桑塔纳</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B211" t="str">
         <v>8000</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C211" t="str">
         <v>18236928233</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D211" t="str">
         <v>豫A6w82z</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E211" t="str">
         <v>车前轮起了个小包，我在航空港区</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F211" t="str">
         <v>2017-02-20 10:31</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
+    <row r="212">
+      <c r="A212" t="str">
         <v>一汽大众速腾</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B212" t="str">
         <v>28000</v>
       </c>
-      <c r="C94" t="str">
+      <c r="C212" t="str">
         <v>15617958567</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D212" t="str">
         <v>豫AH66W5</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E212" t="str">
         <v>飞轮进水生锈然后坏了，4s店说这是我自己造成的，让我自费更换</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F212" t="str">
         <v>2017-02-19 14:57</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
+    <row r="213">
+      <c r="A213" t="str">
         <v>别克君越</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B213" t="str">
         <v>58000</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C213" t="str">
         <v>18539955667</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D213" t="str">
         <v>豫af92e2</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F213" t="str">
         <v>2017-02-19 13:58</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="str">
+    <row r="214">
+      <c r="A214" t="str">
         <v>轿车</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B214" t="str">
         <v>37000</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C214" t="str">
         <v>13783446552</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D214" t="str">
         <v>豫A62SG0</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E214" t="str">
         <v>左侧叶子板需要钣金喷漆、右侧倒车镜被挂车门凹进去一点。刹车条需要更换费用分别大概是多少？</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F214" t="str">
         <v>2017-02-19 11:15</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
+    <row r="215">
+      <c r="A215" t="str">
         <v>吉利  帝豪gl  金色</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B215" t="str">
         <v>700</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C215" t="str">
         <v>15637152165</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D215" t="str">
         <v>豫BDl873</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E215" t="str">
         <v>补漆</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F215" t="str">
         <v>2017-02-19 06:50</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
+    <row r="216">
+      <c r="A216" t="str">
         <v>起亚K5</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B216" t="str">
         <v>106000</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C216" t="str">
         <v>18838109260</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D216" t="str">
         <v>鲁C6860G</v>
       </c>
-      <c r="E98" t="str">
+      <c r="E216" t="str">
         <v>车辆行驶过程中颠簸比较厉害，发动机声音比较闷</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F216" t="str">
         <v>2017-02-18 17:33</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
+    <row r="217">
+      <c r="A217" t="str">
         <v>福特福睿斯</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B217" t="str">
         <v>9000</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C217" t="str">
         <v>13213063315</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D217" t="str">
         <v>豫A22A9Y</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E217" t="str">
         <v>你们店的地址短信我删掉了，再发给我一次吧</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F217" t="str">
         <v>2017-02-18 11:35</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
+    <row r="218">
+      <c r="A218" t="str">
         <v>长安欧诺</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B218" t="str">
         <v>32000</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C218" t="str">
         <v>18037338692</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D218" t="str">
         <v>豫AW5W78</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E218" t="str">
         <v>车子跑偏做过四轮定位依然存在</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F218" t="str">
         <v>2017-02-18 08:28</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="str">
+    <row r="219">
+      <c r="A219" t="str">
         <v>新帕萨特</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B219" t="str">
         <v>198000</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C219" t="str">
         <v>13253531225</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D219" t="str">
         <v>豫AR122H</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E219" t="str">
         <v>烧机油</v>
       </c>
-      <c r="F101" t="str">
+      <c r="F219" t="str">
         <v>2017-02-17 20:36</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
+    <row r="220">
+      <c r="A220" t="str">
         <v>东风菱智</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B220" t="str">
         <v>68780</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C220" t="str">
         <v>15538025287</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D220" t="str">
         <v>豫an08h7</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E220" t="str">
         <v>气缸垫破损，发动机进水</v>
       </c>
-      <c r="F102" t="str">
+      <c r="F220" t="str">
         <v>2017-02-17 18:00</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
+    <row r="221">
+      <c r="A221" t="str">
         <v>北京现代名图</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B221" t="str">
         <v>41307</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C221" t="str">
         <v>13838151427</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D221" t="str">
         <v>豫AC21D1</v>
       </c>
-      <c r="E103" t="str">
+      <c r="E221" t="str">
         <v>天窗有时打不开，打开以后关不上</v>
       </c>
-      <c r="F103" t="str">
+      <c r="F221" t="str">
         <v>2017-02-17 11:13</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
+    <row r="222">
+      <c r="A222" t="str">
         <v>马自达</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B222" t="str">
         <v>75000</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C222" t="str">
         <v>15238077867</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D222" t="str">
         <v>豫A7NE72</v>
       </c>
-      <c r="E104" t="str">
+      <c r="E222" t="str">
         <v>发动机故障灯亮，去四儿子店说是氧传感器和三元催化的问题</v>
       </c>
-      <c r="F104" t="str">
+      <c r="F222" t="str">
         <v>2017-02-16 20:34</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
+    <row r="223">
+      <c r="A223" t="str">
         <v>长安之星</v>
       </c>
-      <c r="B105" t="str">
+      <c r="B223" t="str">
         <v>62800</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C223" t="str">
         <v>18137777519</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D223" t="str">
         <v>豫A3Y810</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E223" t="str">
         <v>水箱高温，气门维修</v>
       </c>
-      <c r="F105" t="str">
+      <c r="F223" t="str">
         <v>2017-02-16 15:13</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
+    <row r="224">
+      <c r="A224" t="str">
         <v>高尔夫4</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B224" t="str">
         <v>14万</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C224" t="str">
         <v>15981887786</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D224" t="str">
         <v>豫AJD858</v>
       </c>
-      <c r="F106" t="str">
+      <c r="F224" t="str">
         <v>2017-02-16 14:31</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
+    <row r="225">
+      <c r="A225" t="str">
         <v>途安L</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B225" t="str">
         <v>14000</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C225" t="str">
         <v>15039055682</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D225" t="str">
         <v>豫A8Z08E</v>
       </c>
-      <c r="E107" t="str">
+      <c r="E225" t="str">
         <v>你好，我的车被蹭了，左后轮上方，金属应该是叶子板凹陷，后保险杠小范围脱漆，咱那修复多少钱？请尽快联系我，我考虑是自己修还是走保险</v>
       </c>
-      <c r="F107" t="str">
+      <c r="F225" t="str">
         <v>2017-02-16 12:41</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
+    <row r="226">
+      <c r="A226" t="str">
         <v>高尔夫4</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B226" t="str">
         <v>14万</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C226" t="str">
         <v>15981887786</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D226" t="str">
         <v>豫AJD858</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E226" t="str">
         <v>左后视镜维修，年检前检修</v>
       </c>
-      <c r="F108" t="str">
+      <c r="F226" t="str">
         <v>2017-02-16 12:23</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
+    <row r="227">
+      <c r="A227" t="str">
         <v>A6</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B227" t="str">
         <v>10300</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C227" t="str">
         <v>15939670000</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D227" t="str">
         <v>922</v>
       </c>
-      <c r="E109" t="str">
+      <c r="E227" t="str">
         <v>做漆面保养</v>
       </c>
-      <c r="F109" t="str">
+      <c r="F227" t="str">
         <v>2017-02-16 08:33</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
+    <row r="228">
+      <c r="A228" t="str">
         <v>迈腾</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B228" t="str">
         <v>19000</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C228" t="str">
         <v>15136153228</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D228" t="str">
         <v>豫AZ87J6</v>
       </c>
-      <c r="E110" t="str">
+      <c r="E228" t="str">
         <v>修补车右后门划痕</v>
       </c>
-      <c r="F110" t="str">
+      <c r="F228" t="str">
         <v>2017-02-16 08:07</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
+    <row r="229">
+      <c r="A229" t="str">
         <v>荣威350</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B229" t="str">
         <v>64000</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C229" t="str">
         <v>15038381779</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D229" t="str">
         <v>豫ah8t02</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E229" t="str">
         <v>汽油泵坏了！换个新的！新油泵嗡嗡响噪音很大！怎么解决</v>
       </c>
-      <c r="F111" t="str">
+      <c r="F229" t="str">
         <v>2017-02-15 19:26</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
+    <row r="230">
+      <c r="A230" t="str">
         <v>东风本田CRV</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B230" t="str">
         <v>85000</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C230" t="str">
         <v>13838249921</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D230" t="str">
         <v>豫A358HA</v>
       </c>
-      <c r="E112" t="str">
+      <c r="E230" t="str">
         <v>前保险杠变形，掉漆</v>
       </c>
-      <c r="F112" t="str">
+      <c r="F230" t="str">
         <v>2017-02-15 09:57</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="str">
+    <row r="231">
+      <c r="A231" t="str">
         <v>新赛欧3</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B231" t="str">
         <v>8600</v>
       </c>
-      <c r="C113" t="str">
+      <c r="C231" t="str">
         <v>15037169213</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D231" t="str">
         <v>豫A5Q36U</v>
       </c>
-      <c r="E113" t="str">
+      <c r="E231" t="str">
         <v>挂掉漆</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F231" t="str">
         <v>2017-02-15 09:12</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="str">
+    <row r="232">
+      <c r="A232" t="str">
         <v>全新胜达2.4</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B232" t="str">
         <v>28000</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C232" t="str">
         <v>13383865030</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D232" t="str">
         <v>豫A3XL76</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E232" t="str">
         <v>请问28000需要清洗喷油嘴和解气们门吗？谢谢</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F232" t="str">
         <v>2017-02-14 22:27</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="str">
+    <row r="233">
+      <c r="A233" t="str">
         <v>江淮和悦rs</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B233" t="str">
         <v>5</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C233" t="str">
         <v>18238579895</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D233" t="str">
         <v>yfe2219</v>
       </c>
-      <c r="E115" t="str">
+      <c r="E233" t="str">
         <v>老杨你好。请问燃油添加剂有用吗？三元催化如何清洗</v>
       </c>
-      <c r="F115" t="str">
+      <c r="F233" t="str">
         <v>2017-02-14 21:50</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="str">
+    <row r="234">
+      <c r="A234" t="str">
         <v>福特福睿斯</v>
       </c>
-      <c r="B116" t="str">
+      <c r="B234" t="str">
         <v>24000</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C234" t="str">
         <v>13569526157</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D234" t="str">
         <v>豫AB53S5</v>
       </c>
-      <c r="E116" t="str">
+      <c r="E234" t="str">
         <v>能不能推荐一个经开区这边的既便宜又修车靠谱的汽修厂？？</v>
       </c>
-      <c r="F116" t="str">
+      <c r="F234" t="str">
         <v>2017-02-14 18:41</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="str">
+    <row r="235">
+      <c r="A235" t="str">
         <v>道奇酷威</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B235" t="str">
         <v>101389</v>
       </c>
-      <c r="C117" t="str">
+      <c r="C235" t="str">
         <v>13140039003</v>
       </c>
-      <c r="D117" t="str">
+      <c r="D235" t="str">
         <v>豫A93393</v>
       </c>
-      <c r="E117" t="str">
+      <c r="E235" t="str">
         <v>到一定的转速不会自动换挡了，手动挡也不管用了。</v>
       </c>
-      <c r="F117" t="str">
+      <c r="F235" t="str">
         <v>2017-02-14 18:23</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="str">
+    <row r="236">
+      <c r="A236" t="str">
         <v>12款大众cc</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B236" t="str">
         <v>990000</v>
       </c>
-      <c r="C118" t="str">
+      <c r="C236" t="str">
         <v>18539925566</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D236" t="str">
         <v>豫a218cc</v>
       </c>
-      <c r="E118" t="str">
+      <c r="E236" t="str">
         <v>喷漆</v>
       </c>
-      <c r="F118" t="str">
+      <c r="F236" t="str">
         <v>2017-02-14 14:56</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="str">
+    <row r="237">
+      <c r="A237" t="str">
         <v>本田凌派</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B237" t="str">
         <v>8万</v>
       </c>
-      <c r="C119" t="str">
+      <c r="C237" t="str">
         <v>13838201578</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D237" t="str">
         <v>9YW08</v>
       </c>
-      <c r="E119" t="str">
+      <c r="E237" t="str">
         <v>维修</v>
       </c>
-      <c r="F119" t="str">
+      <c r="F237" t="str">
         <v>2017-02-14 11:13</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="str">
+    <row r="238">
+      <c r="A238" t="str">
         <v>迈腾</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B238" t="str">
         <v>72000</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C238" t="str">
         <v>18103815383</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D238" t="str">
         <v>f272t</v>
       </c>
-      <c r="E120" t="str">
+      <c r="E238" t="str">
         <v>车辆冷车启动打火时间比较长，但是使用后再启动比较快！！如何处理？</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F238" t="str">
         <v>2017-02-14 09:24</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="str">
+    <row r="239">
+      <c r="A239" t="str">
         <v>奇俊</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B239" t="str">
         <v>50000</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C239" t="str">
         <v>13633821067</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D239" t="str">
         <v>豫AN7L00</v>
       </c>
-      <c r="E121" t="str">
+      <c r="E239" t="str">
         <v>右后侧门钣金喷漆</v>
       </c>
-      <c r="F121" t="str">
+      <c r="F239" t="str">
         <v>2017-02-14 08:25</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="str">
+    <row r="240">
+      <c r="A240" t="str">
         <v>长安之星2</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B240" t="str">
         <v>54000</v>
       </c>
-      <c r="C122" t="str">
+      <c r="C240" t="str">
         <v>13592675209</v>
       </c>
-      <c r="D122" t="str">
+      <c r="D240" t="str">
         <v>豫AZ683M</v>
       </c>
-      <c r="E122" t="str">
+      <c r="E240" t="str">
         <v>保养，中门打不开，左前轮刹车片异响。上次您打电话我没接着。。。。请下午打电话。</v>
       </c>
-      <c r="F122" t="str">
+      <c r="F240" t="str">
         <v>2017-02-13 19:29</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="str">
+    <row r="241">
+      <c r="A241" t="str">
         <v>现代飞思</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B241" t="str">
         <v>22000</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C241" t="str">
         <v>18638787733</v>
       </c>
-      <c r="D123" t="str">
+      <c r="D241" t="str">
         <v>豫A9</v>
       </c>
-      <c r="E123" t="str">
+      <c r="E241" t="str">
         <v>车前保险杠右侧蹭了</v>
       </c>
-      <c r="F123" t="str">
+      <c r="F241" t="str">
         <v>2017-02-13 14:17</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="str">
+    <row r="242">
+      <c r="A242" t="str">
         <v>三厢家轿</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B242" t="str">
         <v>9万</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C242" t="str">
         <v>13603982565</v>
       </c>
-      <c r="D124" t="str">
+      <c r="D242" t="str">
         <v>687BV</v>
       </c>
-      <c r="E124" t="str">
+      <c r="E242" t="str">
         <v>喷漆</v>
       </c>
-      <c r="F124" t="str">
+      <c r="F242" t="str">
         <v>2017-02-13 12:53</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="str">
+    <row r="243">
+      <c r="A243" t="str">
         <v>朗逸</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B243" t="str">
         <v>50000</v>
       </c>
-      <c r="C125" t="str">
+      <c r="C243" t="str">
         <v>18625587522</v>
       </c>
-      <c r="D125" t="str">
+      <c r="D243" t="str">
         <v>豫A6</v>
       </c>
-      <c r="E125" t="str">
+      <c r="E243" t="str">
         <v>朗逸09款  2.0  AT  每次汽车刚启动方向盘很轻、为什么开一会儿方向盘就变沉了</v>
       </c>
-      <c r="F125" t="str">
+      <c r="F243" t="str">
         <v>2017-02-13 11:55</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="str">
+    <row r="244">
+      <c r="A244" t="str">
         <v>威朗</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B244" t="str">
         <v>2112</v>
       </c>
-      <c r="C126" t="str">
+      <c r="C244" t="str">
         <v>18839794138</v>
       </c>
-      <c r="D126" t="str">
+      <c r="D244" t="str">
         <v>豫B41795</v>
       </c>
-      <c r="E126" t="str">
+      <c r="E244" t="str">
         <v>车门内部，开窗开关地方漏风是什么原因</v>
       </c>
-      <c r="F126" t="str">
+      <c r="F244" t="str">
         <v>2017-02-13 11:48</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="str">
+    <row r="245">
+      <c r="A245" t="str">
         <v>宝骏730</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B245" t="str">
         <v>11156</v>
       </c>
-      <c r="C127" t="str">
+      <c r="C245" t="str">
         <v>15893016652</v>
       </c>
-      <c r="D127" t="str">
+      <c r="D245" t="str">
         <v>豫hl8885</v>
       </c>
-      <c r="E127" t="str">
+      <c r="E245" t="str">
         <v>去年四月份买的车，以旧换新宝骏补贴3000,销售人员说最多3个月就补贴，现在快一年了还没补贴3000</v>
       </c>
-      <c r="F127" t="str">
+      <c r="F245" t="str">
         <v>2017-02-13 11:45</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="str">
+    <row r="246">
+      <c r="A246" t="str">
         <v>大众途威</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B246" t="str">
         <v>34000</v>
       </c>
-      <c r="C128" t="str">
+      <c r="C246" t="str">
         <v>13837608998</v>
       </c>
-      <c r="D128" t="str">
+      <c r="D246" t="str">
         <v>QQ 009</v>
       </c>
-      <c r="E128" t="str">
+      <c r="E246" t="str">
         <v>启动打火以前是一两秒，现在打火四到五秒以上才启动，为什么？</v>
       </c>
-      <c r="F128" t="str">
+      <c r="F246" t="str">
         <v>2017-02-13 11:44</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="str">
+    <row r="247">
+      <c r="A247" t="str">
         <v>翼虎</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B247" t="str">
         <v>2.5万</v>
       </c>
-      <c r="C129" t="str">
+      <c r="C247" t="str">
         <v>18236405609</v>
       </c>
-      <c r="D129" t="str">
+      <c r="D247" t="str">
         <v>豫AR53L5--</v>
       </c>
-      <c r="E129" t="str">
+      <c r="E247" t="str">
         <v>动力没有刚开始强，是不是该保养啥了？</v>
       </c>
-      <c r="F129" t="str">
+      <c r="F247" t="str">
         <v>2017-02-13 11:43</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="str">
+    <row r="248">
+      <c r="A248" t="str">
         <v>奇峻</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B248" t="str">
         <v>50000</v>
       </c>
-      <c r="C130" t="str">
+      <c r="C248" t="str">
         <v>13633821067</v>
       </c>
-      <c r="D130" t="str">
+      <c r="D248" t="str">
         <v>豫A</v>
       </c>
-      <c r="E130" t="str">
+      <c r="E248" t="str">
         <v>右后车门钣金喷漆</v>
       </c>
-      <c r="F130" t="str">
+      <c r="F248" t="str">
         <v>2017-02-13 11:15</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="str">
+    <row r="249">
+      <c r="A249" t="str">
         <v>大众golf2015款</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B249" t="str">
         <v>20000</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C249" t="str">
         <v>13526822263</v>
       </c>
-      <c r="D131" t="str">
+      <c r="D249" t="str">
         <v>豫AF02B6</v>
       </c>
-      <c r="E131" t="str">
+      <c r="E249" t="str">
         <v>前面板左右两侧有刮蹭，维修多少钱</v>
       </c>
-      <c r="F131" t="str">
+      <c r="F249" t="str">
         <v>2017-02-13 07:40</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="str">
+    <row r="250">
+      <c r="A250" t="str">
         <v>cc</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B250" t="str">
         <v>27000</v>
       </c>
-      <c r="C132" t="str">
+      <c r="C250" t="str">
         <v>18538271163</v>
       </c>
-      <c r="D132" t="str">
+      <c r="D250" t="str">
         <v>a001bc</v>
       </c>
-      <c r="F132" t="str">
+      <c r="F250" t="str">
         <v>2017-02-12 11:52</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="str">
+    <row r="251">
+      <c r="A251" t="str">
         <v>2015款大众朗行</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B251" t="str">
         <v>14800</v>
       </c>
-      <c r="C133" t="str">
+      <c r="C251" t="str">
         <v>15537128081</v>
       </c>
-      <c r="D133" t="str">
+      <c r="D251" t="str">
         <v>豫A0U80B</v>
       </c>
-      <c r="E133" t="str">
+      <c r="E251" t="str">
         <v>车门被划了深深的一道，想补漆</v>
       </c>
-      <c r="F133" t="str">
+      <c r="F251" t="str">
         <v>2017-02-12 08:04</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="str">
+    <row r="252">
+      <c r="A252" t="str">
         <v>全新爱丽舍</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B252" t="str">
         <v>23500</v>
       </c>
-      <c r="C134" t="str">
+      <c r="C252" t="str">
         <v>18839708655</v>
       </c>
-      <c r="D134" t="str">
+      <c r="D252" t="str">
         <v>EA8G93</v>
       </c>
-      <c r="E134" t="str">
+      <c r="E252" t="str">
         <v>钣金喷漆</v>
       </c>
-      <c r="F134" t="str">
+      <c r="F252" t="str">
         <v>2017-02-11 15:52</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="str">
+    <row r="253">
+      <c r="A253" t="str">
         <v>长安之星二代</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B253" t="str">
         <v>5.2万公里</v>
       </c>
-      <c r="C135" t="str">
+      <c r="C253" t="str">
         <v>13592675209</v>
       </c>
-      <c r="D135" t="str">
+      <c r="D253" t="str">
         <v>豫AZ683M</v>
       </c>
-      <c r="E135" t="str">
+      <c r="E253" t="str">
         <v>机油三滤，中门打不开了，左前刹车有异响，方向盘有点偏。</v>
       </c>
-      <c r="F135" t="str">
+      <c r="F253" t="str">
         <v>2017-02-10 01:07</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="str">
+    <row r="254">
+      <c r="A254" t="str">
         <v>蓝鸟</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B254" t="str">
         <v>12000</v>
       </c>
-      <c r="C136" t="str">
+      <c r="C254" t="str">
         <v>15638588003</v>
       </c>
-      <c r="D136" t="str">
+      <c r="D254" t="str">
         <v>豫A1T12E</v>
       </c>
-      <c r="E136" t="str">
+      <c r="E254" t="str">
         <v>车大灯太暗，想换个亮一点的大灯，需要多少钱。</v>
       </c>
-      <c r="F136" t="str">
+      <c r="F254" t="str">
         <v>2017-02-09 20:16</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="str">
+    <row r="255">
+      <c r="A255" t="str">
         <v>福特福睿斯</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B255" t="str">
         <v>6500</v>
       </c>
-      <c r="C137" t="str">
+      <c r="C255" t="str">
         <v>18203660448</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D255" t="str">
         <v>豫A80D9Y</v>
       </c>
-      <c r="E137" t="str">
+      <c r="E255" t="str">
         <v>钣金加喷漆</v>
       </c>
-      <c r="F137" t="str">
+      <c r="F255" t="str">
         <v>2017-02-09 13:32</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="str">
+    <row r="256">
+      <c r="A256" t="str">
         <v>现代新胜达</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B256" t="str">
         <v>31000公里</v>
       </c>
-      <c r="C138" t="str">
+      <c r="C256" t="str">
         <v>13937190828</v>
       </c>
-      <c r="D138" t="str">
+      <c r="D256" t="str">
         <v>豫A1PS72</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E256" t="str">
         <v>汽车维修</v>
       </c>
-      <c r="F138" t="str">
+      <c r="F256" t="str">
         <v>2017-02-09 12:31</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="str">
+    <row r="257">
+      <c r="A257" t="str">
         <v>现代新胜达</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B257" t="str">
         <v>31000</v>
       </c>
-      <c r="C139" t="str">
+      <c r="C257" t="str">
         <v>13937190828</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D257" t="str">
         <v>豫A1PS72</v>
       </c>
-      <c r="E139" t="str">
+      <c r="E257" t="str">
         <v>扳金维修</v>
       </c>
-      <c r="F139" t="str">
+      <c r="F257" t="str">
         <v>2017-02-09 05:32</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="str">
+    <row r="258">
+      <c r="A258" t="str">
         <v>小车</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B258" t="str">
         <v>30000公里</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C258" t="str">
         <v>15037127315</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D258" t="str">
         <v>豫AZ813Z</v>
       </c>
-      <c r="E140" t="str">
+      <c r="E258" t="str">
         <v>左右转向灯时亮时不亮</v>
       </c>
-      <c r="F140" t="str">
+      <c r="F258" t="str">
         <v>2017-02-08 23:04</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="str">
+    <row r="259">
+      <c r="A259" t="str">
         <v>13款大众帕萨特2.0T</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B259" t="str">
         <v>100000</v>
       </c>
-      <c r="C141" t="str">
+      <c r="C259" t="str">
         <v>15378738673</v>
       </c>
-      <c r="D141" t="str">
+      <c r="D259" t="str">
         <v>浙A5YN86</v>
       </c>
-      <c r="E141" t="str">
+      <c r="E259" t="str">
         <v>清洗油气路</v>
       </c>
-      <c r="F141" t="str">
+      <c r="F259" t="str">
         <v>2017-02-08 14:25</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="str">
+    <row r="260">
+      <c r="A260" t="str">
         <v>朗逸</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B260" t="str">
         <v>91000</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C260" t="str">
         <v>13803812561</v>
       </c>
-      <c r="D142" t="str">
+      <c r="D260" t="str">
         <v>豫An225n</v>
       </c>
-      <c r="E142" t="str">
+      <c r="E260" t="str">
         <v>钣金喷漆</v>
       </c>
-      <c r="F142" t="str">
+      <c r="F260" t="str">
         <v>2017-02-08 11:09</v>
       </c>
     </row>
